--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2015.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2015.xlsx
@@ -3,340 +3,343 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t>0192
+    <t xml:space="preserve">0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t>0280
+    <t xml:space="preserve">0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t>0580
+    <t xml:space="preserve">0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t>0680
+    <t xml:space="preserve">0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t>0791
+    <t xml:space="preserve">0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t>0792
+    <t xml:space="preserve">0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t>1091
+    <t xml:space="preserve">1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t>1092
+    <t xml:space="preserve">1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t>1093
+    <t xml:space="preserve">1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t>1100
+    <t xml:space="preserve">1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t>1200
+    <t xml:space="preserve">1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t>1300
+    <t xml:space="preserve">1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t>1400
+    <t xml:space="preserve">1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t>1500
+    <t xml:space="preserve">1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t>1600
+    <t xml:space="preserve">1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t>1700
+    <t xml:space="preserve">1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t>1800
+    <t xml:space="preserve">1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t>1991
+    <t xml:space="preserve">1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t>1992
+    <t xml:space="preserve">1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t>2091
+    <t xml:space="preserve">2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t>2092
+    <t xml:space="preserve">2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t>2093
+    <t xml:space="preserve">2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t>2100
+    <t xml:space="preserve">2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t>2200
+    <t xml:space="preserve">2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t>2300
+    <t xml:space="preserve">2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t>2491
+    <t xml:space="preserve">2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>2492
+    <t xml:space="preserve">2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t>2500
+    <t xml:space="preserve">2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t>2600
+    <t xml:space="preserve">2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t>2700
+    <t xml:space="preserve">2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t>2800
+    <t xml:space="preserve">2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t>2991
+    <t xml:space="preserve">2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t>2992
+    <t xml:space="preserve">2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t>3000
+    <t xml:space="preserve">3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t>3180
+    <t xml:space="preserve">3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t>3300
+    <t xml:space="preserve">3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t>3500
+    <t xml:space="preserve">3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t>3680
+    <t xml:space="preserve">3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t>4180
+    <t xml:space="preserve">4180
 Construção</t>
   </si>
   <si>
-    <t>4500
+    <t xml:space="preserve">4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t>4680
+    <t xml:space="preserve">4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t>4900
+    <t xml:space="preserve">4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t>5000
+    <t xml:space="preserve">5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t>5100
+    <t xml:space="preserve">5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t>5280
+    <t xml:space="preserve">5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t>5500
+    <t xml:space="preserve">5500
 Alojamento</t>
   </si>
   <si>
-    <t>5600
+    <t xml:space="preserve">5600
 Alimentação</t>
   </si>
   <si>
-    <t>5800
+    <t xml:space="preserve">5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t>5980
+    <t xml:space="preserve">5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t>6100
+    <t xml:space="preserve">6100
 Telecomunicações</t>
   </si>
   <si>
-    <t>6280
+    <t xml:space="preserve">6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t>6480
+    <t xml:space="preserve">6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t>6800
+    <t xml:space="preserve">6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t>6980
+    <t xml:space="preserve">6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t>7180
+    <t xml:space="preserve">7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t>7380
+    <t xml:space="preserve">7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t>7700
+    <t xml:space="preserve">7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t>7880
+    <t xml:space="preserve">7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>8000
+    <t xml:space="preserve">8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t>8400
+    <t xml:space="preserve">8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t>8591
+    <t xml:space="preserve">8591
 Educação pública</t>
   </si>
   <si>
-    <t>8592
+    <t xml:space="preserve">8592
 Educação privada</t>
   </si>
   <si>
-    <t>8691
+    <t xml:space="preserve">8691
 Saúde pública</t>
   </si>
   <si>
-    <t>8692
+    <t xml:space="preserve">8692
 Saúde privada</t>
   </si>
   <si>
-    <t>9080
+    <t xml:space="preserve">9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t>9480
+    <t xml:space="preserve">9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t>9700
+    <t xml:space="preserve">9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remunerações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -365,3151 +368,3435 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>163127.0</v>
+        <v>163127</v>
       </c>
       <c r="C2" t="n">
-        <v>71449.0</v>
+        <v>71449</v>
       </c>
       <c r="D2" t="n">
-        <v>24391.0</v>
+        <v>24391</v>
       </c>
       <c r="E2" t="n">
-        <v>8856.0</v>
+        <v>8856</v>
       </c>
       <c r="F2" t="n">
-        <v>73558.0</v>
+        <v>73558</v>
       </c>
       <c r="G2" t="n">
-        <v>23916.0</v>
+        <v>23916</v>
       </c>
       <c r="H2" t="n">
-        <v>4443.0</v>
+        <v>4443</v>
       </c>
       <c r="I2" t="n">
-        <v>40377.0</v>
+        <v>40377</v>
       </c>
       <c r="J2" t="n">
-        <v>7388.0</v>
+        <v>7388</v>
       </c>
       <c r="K2" t="n">
-        <v>48541.0</v>
+        <v>48541</v>
       </c>
       <c r="L2" t="n">
-        <v>22923.0</v>
+        <v>22923</v>
       </c>
       <c r="M2" t="n">
-        <v>4258.0</v>
+        <v>4258</v>
       </c>
       <c r="N2" t="n">
-        <v>13375.0</v>
+        <v>13375</v>
       </c>
       <c r="O2" t="n">
-        <v>24929.0</v>
+        <v>24929</v>
       </c>
       <c r="P2" t="n">
-        <v>13536.0</v>
+        <v>13536</v>
       </c>
       <c r="Q2" t="n">
-        <v>9840.0</v>
+        <v>9840</v>
       </c>
       <c r="R2" t="n">
-        <v>22787.0</v>
+        <v>22787</v>
       </c>
       <c r="S2" t="n">
-        <v>8396.0</v>
+        <v>8396</v>
       </c>
       <c r="T2" t="n">
-        <v>36427.0</v>
+        <v>36427</v>
       </c>
       <c r="U2" t="n">
-        <v>8680.0</v>
+        <v>8680</v>
       </c>
       <c r="V2" t="n">
-        <v>25439.0</v>
+        <v>25439</v>
       </c>
       <c r="W2" t="n">
-        <v>15095.0</v>
+        <v>15095</v>
       </c>
       <c r="X2" t="n">
-        <v>8397.0</v>
+        <v>8397</v>
       </c>
       <c r="Y2" t="n">
-        <v>23147.0</v>
+        <v>23147</v>
       </c>
       <c r="Z2" t="n">
-        <v>26077.0</v>
+        <v>26077</v>
       </c>
       <c r="AA2" t="n">
-        <v>27750.0</v>
+        <v>27750</v>
       </c>
       <c r="AB2" t="n">
-        <v>21747.0</v>
+        <v>21747</v>
       </c>
       <c r="AC2" t="n">
-        <v>12555.0</v>
+        <v>12555</v>
       </c>
       <c r="AD2" t="n">
-        <v>34302.0</v>
+        <v>34302</v>
       </c>
       <c r="AE2" t="n">
-        <v>13715.0</v>
+        <v>13715</v>
       </c>
       <c r="AF2" t="n">
-        <v>17037.0</v>
+        <v>17037</v>
       </c>
       <c r="AG2" t="n">
-        <v>37643.0</v>
+        <v>37643</v>
       </c>
       <c r="AH2" t="n">
-        <v>22410.0</v>
+        <v>22410</v>
       </c>
       <c r="AI2" t="n">
-        <v>18416.0</v>
+        <v>18416</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12065.0</v>
+        <v>12065</v>
       </c>
       <c r="AK2" t="n">
-        <v>31376.0</v>
+        <v>31376</v>
       </c>
       <c r="AL2" t="n">
-        <v>22185.0</v>
+        <v>22185</v>
       </c>
       <c r="AM2" t="n">
-        <v>85465.0</v>
+        <v>85465</v>
       </c>
       <c r="AN2" t="n">
-        <v>37718.0</v>
+        <v>37718</v>
       </c>
       <c r="AO2" t="n">
-        <v>296018.0</v>
+        <v>296018</v>
       </c>
       <c r="AP2" t="n">
-        <v>86906.0</v>
+        <v>86906</v>
       </c>
       <c r="AQ2" t="n">
-        <v>598802.0</v>
+        <v>598802</v>
       </c>
       <c r="AR2" t="n">
-        <v>145771.0</v>
+        <v>145771</v>
       </c>
       <c r="AS2" t="n">
-        <v>8758.0</v>
+        <v>8758</v>
       </c>
       <c r="AT2" t="n">
-        <v>6882.0</v>
+        <v>6882</v>
       </c>
       <c r="AU2" t="n">
-        <v>65089.0</v>
+        <v>65089</v>
       </c>
       <c r="AV2" t="n">
-        <v>13124.0</v>
+        <v>13124</v>
       </c>
       <c r="AW2" t="n">
-        <v>109506.0</v>
+        <v>109506</v>
       </c>
       <c r="AX2" t="n">
-        <v>8757.0</v>
+        <v>8757</v>
       </c>
       <c r="AY2" t="n">
-        <v>19242.0</v>
+        <v>19242</v>
       </c>
       <c r="AZ2" t="n">
-        <v>65303.0</v>
+        <v>65303</v>
       </c>
       <c r="BA2" t="n">
-        <v>82702.0</v>
+        <v>82702</v>
       </c>
       <c r="BB2" t="n">
-        <v>365276.0</v>
+        <v>365276</v>
       </c>
       <c r="BC2" t="n">
-        <v>498884.0</v>
+        <v>498884</v>
       </c>
       <c r="BD2" t="n">
-        <v>125524.0</v>
+        <v>125524</v>
       </c>
       <c r="BE2" t="n">
-        <v>44866.0</v>
+        <v>44866</v>
       </c>
       <c r="BF2" t="n">
-        <v>33439.0</v>
+        <v>33439</v>
       </c>
       <c r="BG2" t="n">
-        <v>29535.0</v>
+        <v>29535</v>
       </c>
       <c r="BH2" t="n">
-        <v>146846.0</v>
+        <v>146846</v>
       </c>
       <c r="BI2" t="n">
-        <v>32943.0</v>
+        <v>32943</v>
       </c>
       <c r="BJ2" t="n">
-        <v>509142.0</v>
+        <v>509142</v>
       </c>
       <c r="BK2" t="n">
-        <v>257301.0</v>
+        <v>257301</v>
       </c>
       <c r="BL2" t="n">
-        <v>76654.0</v>
+        <v>76654</v>
       </c>
       <c r="BM2" t="n">
-        <v>119144.0</v>
+        <v>119144</v>
       </c>
       <c r="BN2" t="n">
-        <v>133285.0</v>
+        <v>133285</v>
       </c>
       <c r="BO2" t="n">
-        <v>19139.0</v>
+        <v>19139</v>
       </c>
       <c r="BP2" t="n">
-        <v>71031.0</v>
+        <v>71031</v>
       </c>
       <c r="BQ2" t="n">
-        <v>61996.0</v>
+        <v>61996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>26121.0</v>
+        <v>26121</v>
       </c>
       <c r="C3" t="n">
-        <v>21490.0</v>
+        <v>21490</v>
       </c>
       <c r="D3" t="n">
-        <v>2199.0</v>
+        <v>2199</v>
       </c>
       <c r="E3" t="n">
-        <v>4040.0</v>
+        <v>4040</v>
       </c>
       <c r="F3" t="n">
-        <v>22138.0</v>
+        <v>22138</v>
       </c>
       <c r="G3" t="n">
-        <v>4349.0</v>
+        <v>4349</v>
       </c>
       <c r="H3" t="n">
-        <v>2264.0</v>
+        <v>2264</v>
       </c>
       <c r="I3" t="n">
-        <v>25736.0</v>
+        <v>25736</v>
       </c>
       <c r="J3" t="n">
-        <v>8420.0</v>
+        <v>8420</v>
       </c>
       <c r="K3" t="n">
-        <v>28893.0</v>
+        <v>28893</v>
       </c>
       <c r="L3" t="n">
-        <v>8407.0</v>
+        <v>8407</v>
       </c>
       <c r="M3" t="n">
-        <v>1379.0</v>
+        <v>1379</v>
       </c>
       <c r="N3" t="n">
-        <v>9992.0</v>
+        <v>9992</v>
       </c>
       <c r="O3" t="n">
-        <v>17703.0</v>
+        <v>17703</v>
       </c>
       <c r="P3" t="n">
-        <v>9781.0</v>
+        <v>9781</v>
       </c>
       <c r="Q3" t="n">
-        <v>5910.0</v>
+        <v>5910</v>
       </c>
       <c r="R3" t="n">
-        <v>11483.0</v>
+        <v>11483</v>
       </c>
       <c r="S3" t="n">
-        <v>5677.0</v>
+        <v>5677</v>
       </c>
       <c r="T3" t="n">
-        <v>6968.0</v>
+        <v>6968</v>
       </c>
       <c r="U3" t="n">
-        <v>6275.0</v>
+        <v>6275</v>
       </c>
       <c r="V3" t="n">
-        <v>11285.0</v>
+        <v>11285</v>
       </c>
       <c r="W3" t="n">
-        <v>9342.0</v>
+        <v>9342</v>
       </c>
       <c r="X3" t="n">
-        <v>5589.0</v>
+        <v>5589</v>
       </c>
       <c r="Y3" t="n">
-        <v>11215.0</v>
+        <v>11215</v>
       </c>
       <c r="Z3" t="n">
-        <v>20552.0</v>
+        <v>20552</v>
       </c>
       <c r="AA3" t="n">
-        <v>20003.0</v>
+        <v>20003</v>
       </c>
       <c r="AB3" t="n">
-        <v>12073.0</v>
+        <v>12073</v>
       </c>
       <c r="AC3" t="n">
-        <v>5838.0</v>
+        <v>5838</v>
       </c>
       <c r="AD3" t="n">
-        <v>22659.0</v>
+        <v>22659</v>
       </c>
       <c r="AE3" t="n">
-        <v>10116.0</v>
+        <v>10116</v>
       </c>
       <c r="AF3" t="n">
-        <v>14442.0</v>
+        <v>14442</v>
       </c>
       <c r="AG3" t="n">
-        <v>28171.0</v>
+        <v>28171</v>
       </c>
       <c r="AH3" t="n">
-        <v>20227.0</v>
+        <v>20227</v>
       </c>
       <c r="AI3" t="n">
-        <v>17896.0</v>
+        <v>17896</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9718.0</v>
+        <v>9718</v>
       </c>
       <c r="AK3" t="n">
-        <v>16132.0</v>
+        <v>16132</v>
       </c>
       <c r="AL3" t="n">
-        <v>11883.0</v>
+        <v>11883</v>
       </c>
       <c r="AM3" t="n">
-        <v>16133.0</v>
+        <v>16133</v>
       </c>
       <c r="AN3" t="n">
-        <v>16809.0</v>
+        <v>16809</v>
       </c>
       <c r="AO3" t="n">
-        <v>126609.0</v>
+        <v>126609</v>
       </c>
       <c r="AP3" t="n">
-        <v>44837.0</v>
+        <v>44837</v>
       </c>
       <c r="AQ3" t="n">
-        <v>299831.0</v>
+        <v>299831</v>
       </c>
       <c r="AR3" t="n">
-        <v>78373.0</v>
+        <v>78373</v>
       </c>
       <c r="AS3" t="n">
-        <v>5048.0</v>
+        <v>5048</v>
       </c>
       <c r="AT3" t="n">
-        <v>7103.0</v>
+        <v>7103</v>
       </c>
       <c r="AU3" t="n">
-        <v>40882.0</v>
+        <v>40882</v>
       </c>
       <c r="AV3" t="n">
-        <v>9604.0</v>
+        <v>9604</v>
       </c>
       <c r="AW3" t="n">
-        <v>47868.0</v>
+        <v>47868</v>
       </c>
       <c r="AX3" t="n">
-        <v>6996.0</v>
+        <v>6996</v>
       </c>
       <c r="AY3" t="n">
-        <v>10394.0</v>
+        <v>10394</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17317.0</v>
+        <v>17317</v>
       </c>
       <c r="BA3" t="n">
-        <v>46704.0</v>
+        <v>46704</v>
       </c>
       <c r="BB3" t="n">
-        <v>143243.0</v>
+        <v>143243</v>
       </c>
       <c r="BC3" t="n">
-        <v>6713.0</v>
+        <v>6713</v>
       </c>
       <c r="BD3" t="n">
-        <v>52463.0</v>
+        <v>52463</v>
       </c>
       <c r="BE3" t="n">
-        <v>21956.0</v>
+        <v>21956</v>
       </c>
       <c r="BF3" t="n">
-        <v>11200.0</v>
+        <v>11200</v>
       </c>
       <c r="BG3" t="n">
-        <v>10547.0</v>
+        <v>10547</v>
       </c>
       <c r="BH3" t="n">
-        <v>99876.0</v>
+        <v>99876</v>
       </c>
       <c r="BI3" t="n">
-        <v>28312.0</v>
+        <v>28312</v>
       </c>
       <c r="BJ3" t="n">
-        <v>438035.0</v>
+        <v>438035</v>
       </c>
       <c r="BK3" t="n">
-        <v>246146.0</v>
+        <v>246146</v>
       </c>
       <c r="BL3" t="n">
-        <v>68720.0</v>
+        <v>68720</v>
       </c>
       <c r="BM3" t="n">
-        <v>113676.0</v>
+        <v>113676</v>
       </c>
       <c r="BN3" t="n">
-        <v>67773.0</v>
+        <v>67773</v>
       </c>
       <c r="BO3" t="n">
-        <v>10977.0</v>
+        <v>10977</v>
       </c>
       <c r="BP3" t="n">
-        <v>39513.0</v>
+        <v>39513</v>
       </c>
       <c r="BQ3" t="n">
-        <v>61996.0</v>
+        <v>61996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
-        <v>22254.0</v>
+        <v>22254</v>
       </c>
       <c r="C4" t="n">
-        <v>18575.0</v>
+        <v>18575</v>
       </c>
       <c r="D4" t="n">
-        <v>1856.0</v>
+        <v>1856</v>
       </c>
       <c r="E4" t="n">
-        <v>3224.0</v>
+        <v>3224</v>
       </c>
       <c r="F4" t="n">
-        <v>15849.0</v>
+        <v>15849</v>
       </c>
       <c r="G4" t="n">
-        <v>3469.0</v>
+        <v>3469</v>
       </c>
       <c r="H4" t="n">
-        <v>1736.0</v>
+        <v>1736</v>
       </c>
       <c r="I4" t="n">
-        <v>20196.0</v>
+        <v>20196</v>
       </c>
       <c r="J4" t="n">
-        <v>6247.0</v>
+        <v>6247</v>
       </c>
       <c r="K4" t="n">
-        <v>22969.0</v>
+        <v>22969</v>
       </c>
       <c r="L4" t="n">
-        <v>6604.0</v>
+        <v>6604</v>
       </c>
       <c r="M4" t="n">
-        <v>1065.0</v>
+        <v>1065</v>
       </c>
       <c r="N4" t="n">
-        <v>8174.0</v>
+        <v>8174</v>
       </c>
       <c r="O4" t="n">
-        <v>14039.0</v>
+        <v>14039</v>
       </c>
       <c r="P4" t="n">
-        <v>8076.0</v>
+        <v>8076</v>
       </c>
       <c r="Q4" t="n">
-        <v>4889.0</v>
+        <v>4889</v>
       </c>
       <c r="R4" t="n">
-        <v>9106.0</v>
+        <v>9106</v>
       </c>
       <c r="S4" t="n">
-        <v>4608.0</v>
+        <v>4608</v>
       </c>
       <c r="T4" t="n">
-        <v>4718.0</v>
+        <v>4718</v>
       </c>
       <c r="U4" t="n">
-        <v>4849.0</v>
+        <v>4849</v>
       </c>
       <c r="V4" t="n">
-        <v>8698.0</v>
+        <v>8698</v>
       </c>
       <c r="W4" t="n">
-        <v>7172.0</v>
+        <v>7172</v>
       </c>
       <c r="X4" t="n">
-        <v>4411.0</v>
+        <v>4411</v>
       </c>
       <c r="Y4" t="n">
-        <v>8608.0</v>
+        <v>8608</v>
       </c>
       <c r="Z4" t="n">
-        <v>16060.0</v>
+        <v>16060</v>
       </c>
       <c r="AA4" t="n">
-        <v>16198.0</v>
+        <v>16198</v>
       </c>
       <c r="AB4" t="n">
-        <v>9483.0</v>
+        <v>9483</v>
       </c>
       <c r="AC4" t="n">
-        <v>4697.0</v>
+        <v>4697</v>
       </c>
       <c r="AD4" t="n">
-        <v>18016.0</v>
+        <v>18016</v>
       </c>
       <c r="AE4" t="n">
-        <v>8025.0</v>
+        <v>8025</v>
       </c>
       <c r="AF4" t="n">
-        <v>11366.0</v>
+        <v>11366</v>
       </c>
       <c r="AG4" t="n">
-        <v>22343.0</v>
+        <v>22343</v>
       </c>
       <c r="AH4" t="n">
-        <v>15645.0</v>
+        <v>15645</v>
       </c>
       <c r="AI4" t="n">
-        <v>15091.0</v>
+        <v>15091</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7972.0</v>
+        <v>7972</v>
       </c>
       <c r="AK4" t="n">
-        <v>13189.0</v>
+        <v>13189</v>
       </c>
       <c r="AL4" t="n">
-        <v>9638.0</v>
+        <v>9638</v>
       </c>
       <c r="AM4" t="n">
-        <v>11522.0</v>
+        <v>11522</v>
       </c>
       <c r="AN4" t="n">
-        <v>12873.0</v>
+        <v>12873</v>
       </c>
       <c r="AO4" t="n">
-        <v>102086.0</v>
+        <v>102086</v>
       </c>
       <c r="AP4" t="n">
-        <v>36467.0</v>
+        <v>36467</v>
       </c>
       <c r="AQ4" t="n">
-        <v>238710.0</v>
+        <v>238710</v>
       </c>
       <c r="AR4" t="n">
-        <v>64190.0</v>
+        <v>64190</v>
       </c>
       <c r="AS4" t="n">
-        <v>4137.0</v>
+        <v>4137</v>
       </c>
       <c r="AT4" t="n">
-        <v>5903.0</v>
+        <v>5903</v>
       </c>
       <c r="AU4" t="n">
-        <v>32037.0</v>
+        <v>32037</v>
       </c>
       <c r="AV4" t="n">
-        <v>8061.0</v>
+        <v>8061</v>
       </c>
       <c r="AW4" t="n">
-        <v>40121.0</v>
+        <v>40121</v>
       </c>
       <c r="AX4" t="n">
-        <v>5606.0</v>
+        <v>5606</v>
       </c>
       <c r="AY4" t="n">
-        <v>8727.0</v>
+        <v>8727</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12978.0</v>
+        <v>12978</v>
       </c>
       <c r="BA4" t="n">
-        <v>37524.0</v>
+        <v>37524</v>
       </c>
       <c r="BB4" t="n">
-        <v>110559.0</v>
+        <v>110559</v>
       </c>
       <c r="BC4" t="n">
-        <v>5378.0</v>
+        <v>5378</v>
       </c>
       <c r="BD4" t="n">
-        <v>42869.0</v>
+        <v>42869</v>
       </c>
       <c r="BE4" t="n">
-        <v>17629.0</v>
+        <v>17629</v>
       </c>
       <c r="BF4" t="n">
-        <v>9031.0</v>
+        <v>9031</v>
       </c>
       <c r="BG4" t="n">
-        <v>8432.0</v>
+        <v>8432</v>
       </c>
       <c r="BH4" t="n">
-        <v>80791.0</v>
+        <v>80791</v>
       </c>
       <c r="BI4" t="n">
-        <v>22229.0</v>
+        <v>22229</v>
       </c>
       <c r="BJ4" t="n">
-        <v>314574.0</v>
+        <v>314574</v>
       </c>
       <c r="BK4" t="n">
-        <v>205444.0</v>
+        <v>205444</v>
       </c>
       <c r="BL4" t="n">
-        <v>56800.0</v>
+        <v>56800</v>
       </c>
       <c r="BM4" t="n">
-        <v>93245.0</v>
+        <v>93245</v>
       </c>
       <c r="BN4" t="n">
-        <v>58386.0</v>
+        <v>58386</v>
       </c>
       <c r="BO4" t="n">
-        <v>9416.0</v>
+        <v>9416</v>
       </c>
       <c r="BP4" t="n">
-        <v>33222.0</v>
+        <v>33222</v>
       </c>
       <c r="BQ4" t="n">
-        <v>58786.0</v>
+        <v>58786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>3867.0</v>
+        <v>3867</v>
       </c>
       <c r="C5" t="n">
-        <v>2915.0</v>
+        <v>2915</v>
       </c>
       <c r="D5" t="n">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="E5" t="n">
-        <v>816.0</v>
+        <v>816</v>
       </c>
       <c r="F5" t="n">
-        <v>6289.0</v>
+        <v>6289</v>
       </c>
       <c r="G5" t="n">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="H5" t="n">
-        <v>528.0</v>
+        <v>528</v>
       </c>
       <c r="I5" t="n">
-        <v>5540.0</v>
+        <v>5540</v>
       </c>
       <c r="J5" t="n">
-        <v>2173.0</v>
+        <v>2173</v>
       </c>
       <c r="K5" t="n">
-        <v>5924.0</v>
+        <v>5924</v>
       </c>
       <c r="L5" t="n">
-        <v>1803.0</v>
+        <v>1803</v>
       </c>
       <c r="M5" t="n">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="N5" t="n">
-        <v>1818.0</v>
+        <v>1818</v>
       </c>
       <c r="O5" t="n">
-        <v>3664.0</v>
+        <v>3664</v>
       </c>
       <c r="P5" t="n">
-        <v>1705.0</v>
+        <v>1705</v>
       </c>
       <c r="Q5" t="n">
-        <v>1021.0</v>
+        <v>1021</v>
       </c>
       <c r="R5" t="n">
-        <v>2377.0</v>
+        <v>2377</v>
       </c>
       <c r="S5" t="n">
-        <v>1069.0</v>
+        <v>1069</v>
       </c>
       <c r="T5" t="n">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="U5" t="n">
-        <v>1426.0</v>
+        <v>1426</v>
       </c>
       <c r="V5" t="n">
-        <v>2587.0</v>
+        <v>2587</v>
       </c>
       <c r="W5" t="n">
-        <v>2170.0</v>
+        <v>2170</v>
       </c>
       <c r="X5" t="n">
-        <v>1178.0</v>
+        <v>1178</v>
       </c>
       <c r="Y5" t="n">
-        <v>2607.0</v>
+        <v>2607</v>
       </c>
       <c r="Z5" t="n">
-        <v>4492.0</v>
+        <v>4492</v>
       </c>
       <c r="AA5" t="n">
-        <v>3805.0</v>
+        <v>3805</v>
       </c>
       <c r="AB5" t="n">
-        <v>2590.0</v>
+        <v>2590</v>
       </c>
       <c r="AC5" t="n">
-        <v>1141.0</v>
+        <v>1141</v>
       </c>
       <c r="AD5" t="n">
-        <v>4643.0</v>
+        <v>4643</v>
       </c>
       <c r="AE5" t="n">
-        <v>2091.0</v>
+        <v>2091</v>
       </c>
       <c r="AF5" t="n">
-        <v>3076.0</v>
+        <v>3076</v>
       </c>
       <c r="AG5" t="n">
-        <v>5828.0</v>
+        <v>5828</v>
       </c>
       <c r="AH5" t="n">
-        <v>4582.0</v>
+        <v>4582</v>
       </c>
       <c r="AI5" t="n">
-        <v>2805.0</v>
+        <v>2805</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1746.0</v>
+        <v>1746</v>
       </c>
       <c r="AK5" t="n">
-        <v>2943.0</v>
+        <v>2943</v>
       </c>
       <c r="AL5" t="n">
-        <v>2245.0</v>
+        <v>2245</v>
       </c>
       <c r="AM5" t="n">
-        <v>4611.0</v>
+        <v>4611</v>
       </c>
       <c r="AN5" t="n">
-        <v>3936.0</v>
+        <v>3936</v>
       </c>
       <c r="AO5" t="n">
-        <v>24523.0</v>
+        <v>24523</v>
       </c>
       <c r="AP5" t="n">
-        <v>8370.0</v>
+        <v>8370</v>
       </c>
       <c r="AQ5" t="n">
-        <v>61121.0</v>
+        <v>61121</v>
       </c>
       <c r="AR5" t="n">
-        <v>14183.0</v>
+        <v>14183</v>
       </c>
       <c r="AS5" t="n">
-        <v>911.0</v>
+        <v>911</v>
       </c>
       <c r="AT5" t="n">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="AU5" t="n">
-        <v>8845.0</v>
+        <v>8845</v>
       </c>
       <c r="AV5" t="n">
-        <v>1543.0</v>
+        <v>1543</v>
       </c>
       <c r="AW5" t="n">
-        <v>7747.0</v>
+        <v>7747</v>
       </c>
       <c r="AX5" t="n">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="AY5" t="n">
-        <v>1667.0</v>
+        <v>1667</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4339.0</v>
+        <v>4339</v>
       </c>
       <c r="BA5" t="n">
-        <v>9180.0</v>
+        <v>9180</v>
       </c>
       <c r="BB5" t="n">
-        <v>32684.0</v>
+        <v>32684</v>
       </c>
       <c r="BC5" t="n">
-        <v>1335.0</v>
+        <v>1335</v>
       </c>
       <c r="BD5" t="n">
-        <v>9594.0</v>
+        <v>9594</v>
       </c>
       <c r="BE5" t="n">
-        <v>4327.0</v>
+        <v>4327</v>
       </c>
       <c r="BF5" t="n">
-        <v>2169.0</v>
+        <v>2169</v>
       </c>
       <c r="BG5" t="n">
-        <v>2115.0</v>
+        <v>2115</v>
       </c>
       <c r="BH5" t="n">
-        <v>19085.0</v>
+        <v>19085</v>
       </c>
       <c r="BI5" t="n">
-        <v>6083.0</v>
+        <v>6083</v>
       </c>
       <c r="BJ5" t="n">
-        <v>59590.0</v>
+        <v>59590</v>
       </c>
       <c r="BK5" t="n">
-        <v>38066.0</v>
+        <v>38066</v>
       </c>
       <c r="BL5" t="n">
-        <v>11920.0</v>
+        <v>11920</v>
       </c>
       <c r="BM5" t="n">
-        <v>14951.0</v>
+        <v>14951</v>
       </c>
       <c r="BN5" t="n">
-        <v>9387.0</v>
+        <v>9387</v>
       </c>
       <c r="BO5" t="n">
-        <v>1561.0</v>
+        <v>1561</v>
       </c>
       <c r="BP5" t="n">
-        <v>6291.0</v>
+        <v>6291</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3210.0</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="n">
-        <v>3866.0</v>
+        <v>3866</v>
       </c>
       <c r="C6" t="n">
-        <v>2915.0</v>
+        <v>2915</v>
       </c>
       <c r="D6" t="n">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="E6" t="n">
-        <v>795.0</v>
+        <v>795</v>
       </c>
       <c r="F6" t="n">
-        <v>4945.0</v>
+        <v>4945</v>
       </c>
       <c r="G6" t="n">
-        <v>818.0</v>
+        <v>818</v>
       </c>
       <c r="H6" t="n">
-        <v>504.0</v>
+        <v>504</v>
       </c>
       <c r="I6" t="n">
-        <v>5445.0</v>
+        <v>5445</v>
       </c>
       <c r="J6" t="n">
-        <v>2149.0</v>
+        <v>2149</v>
       </c>
       <c r="K6" t="n">
-        <v>5772.0</v>
+        <v>5772</v>
       </c>
       <c r="L6" t="n">
-        <v>1743.0</v>
+        <v>1743</v>
       </c>
       <c r="M6" t="n">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="N6" t="n">
-        <v>1795.0</v>
+        <v>1795</v>
       </c>
       <c r="O6" t="n">
-        <v>3627.0</v>
+        <v>3627</v>
       </c>
       <c r="P6" t="n">
-        <v>1685.0</v>
+        <v>1685</v>
       </c>
       <c r="Q6" t="n">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="R6" t="n">
-        <v>2155.0</v>
+        <v>2155</v>
       </c>
       <c r="S6" t="n">
-        <v>998.0</v>
+        <v>998</v>
       </c>
       <c r="T6" t="n">
-        <v>1617.0</v>
+        <v>1617</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.0</v>
+        <v>1399</v>
       </c>
       <c r="V6" t="n">
-        <v>2365.0</v>
+        <v>2365</v>
       </c>
       <c r="W6" t="n">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="X6" t="n">
-        <v>1141.0</v>
+        <v>1141</v>
       </c>
       <c r="Y6" t="n">
-        <v>2465.0</v>
+        <v>2465</v>
       </c>
       <c r="Z6" t="n">
-        <v>4394.0</v>
+        <v>4394</v>
       </c>
       <c r="AA6" t="n">
-        <v>3651.0</v>
+        <v>3651</v>
       </c>
       <c r="AB6" t="n">
-        <v>2377.0</v>
+        <v>2377</v>
       </c>
       <c r="AC6" t="n">
-        <v>1082.0</v>
+        <v>1082</v>
       </c>
       <c r="AD6" t="n">
-        <v>4409.0</v>
+        <v>4409</v>
       </c>
       <c r="AE6" t="n">
-        <v>2038.0</v>
+        <v>2038</v>
       </c>
       <c r="AF6" t="n">
-        <v>2975.0</v>
+        <v>2975</v>
       </c>
       <c r="AG6" t="n">
-        <v>5541.0</v>
+        <v>5541</v>
       </c>
       <c r="AH6" t="n">
-        <v>4384.0</v>
+        <v>4384</v>
       </c>
       <c r="AI6" t="n">
-        <v>2728.0</v>
+        <v>2728</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1636.0</v>
+        <v>1636</v>
       </c>
       <c r="AK6" t="n">
-        <v>2812.0</v>
+        <v>2812</v>
       </c>
       <c r="AL6" t="n">
-        <v>2128.0</v>
+        <v>2128</v>
       </c>
       <c r="AM6" t="n">
-        <v>3611.0</v>
+        <v>3611</v>
       </c>
       <c r="AN6" t="n">
-        <v>3647.0</v>
+        <v>3647</v>
       </c>
       <c r="AO6" t="n">
-        <v>23733.0</v>
+        <v>23733</v>
       </c>
       <c r="AP6" t="n">
-        <v>8306.0</v>
+        <v>8306</v>
       </c>
       <c r="AQ6" t="n">
-        <v>60380.0</v>
+        <v>60380</v>
       </c>
       <c r="AR6" t="n">
-        <v>13877.0</v>
+        <v>13877</v>
       </c>
       <c r="AS6" t="n">
-        <v>882.0</v>
+        <v>882</v>
       </c>
       <c r="AT6" t="n">
-        <v>1179.0</v>
+        <v>1179</v>
       </c>
       <c r="AU6" t="n">
-        <v>7868.0</v>
+        <v>7868</v>
       </c>
       <c r="AV6" t="n">
-        <v>1515.0</v>
+        <v>1515</v>
       </c>
       <c r="AW6" t="n">
-        <v>7699.0</v>
+        <v>7699</v>
       </c>
       <c r="AX6" t="n">
-        <v>1315.0</v>
+        <v>1315</v>
       </c>
       <c r="AY6" t="n">
-        <v>1590.0</v>
+        <v>1590</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3545.0</v>
+        <v>3545</v>
       </c>
       <c r="BA6" t="n">
-        <v>8632.0</v>
+        <v>8632</v>
       </c>
       <c r="BB6" t="n">
-        <v>27726.0</v>
+        <v>27726</v>
       </c>
       <c r="BC6" t="n">
-        <v>1298.0</v>
+        <v>1298</v>
       </c>
       <c r="BD6" t="n">
-        <v>8738.0</v>
+        <v>8738</v>
       </c>
       <c r="BE6" t="n">
-        <v>4267.0</v>
+        <v>4267</v>
       </c>
       <c r="BF6" t="n">
-        <v>2143.0</v>
+        <v>2143</v>
       </c>
       <c r="BG6" t="n">
-        <v>2081.0</v>
+        <v>2081</v>
       </c>
       <c r="BH6" t="n">
-        <v>18885.0</v>
+        <v>18885</v>
       </c>
       <c r="BI6" t="n">
-        <v>6042.0</v>
+        <v>6042</v>
       </c>
       <c r="BJ6" t="n">
-        <v>58951.0</v>
+        <v>58951</v>
       </c>
       <c r="BK6" t="n">
-        <v>37912.0</v>
+        <v>37912</v>
       </c>
       <c r="BL6" t="n">
-        <v>11901.0</v>
+        <v>11901</v>
       </c>
       <c r="BM6" t="n">
-        <v>14931.0</v>
+        <v>14931</v>
       </c>
       <c r="BN6" t="n">
-        <v>9342.0</v>
+        <v>9342</v>
       </c>
       <c r="BO6" t="n">
-        <v>1531.0</v>
+        <v>1531</v>
       </c>
       <c r="BP6" t="n">
-        <v>6187.0</v>
+        <v>6187</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3210.0</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>1344.0</v>
+        <v>1344</v>
       </c>
       <c r="G7" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="H7" t="n">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I7" t="n">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="J7" t="n">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="L7" t="n">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="M7" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="N7" t="n">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="P7" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="R7" t="n">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="S7" t="n">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="T7" t="n">
-        <v>633.0</v>
+        <v>633</v>
       </c>
       <c r="U7" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="V7" t="n">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="W7" t="n">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="X7" t="n">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="Z7" t="n">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="AA7" t="n">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="AC7" t="n">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="n">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="n">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="AH7" t="n">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="AI7" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="AL7" t="n">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="AO7" t="n">
-        <v>790.0</v>
+        <v>790</v>
       </c>
       <c r="AP7" t="n">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="AQ7" t="n">
-        <v>741.0</v>
+        <v>741</v>
       </c>
       <c r="AR7" t="n">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="AS7" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="AV7" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AW7" t="n">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AX7" t="n">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="AY7" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="AZ7" t="n">
-        <v>794.0</v>
+        <v>794</v>
       </c>
       <c r="BA7" t="n">
-        <v>548.0</v>
+        <v>548</v>
       </c>
       <c r="BB7" t="n">
-        <v>4958.0</v>
+        <v>4958</v>
       </c>
       <c r="BC7" t="n">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="BD7" t="n">
-        <v>856.0</v>
+        <v>856</v>
       </c>
       <c r="BE7" t="n">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="BF7" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="BG7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="BH7" t="n">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="BI7" t="n">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="BJ7" t="n">
-        <v>639.0</v>
+        <v>639</v>
       </c>
       <c r="BK7" t="n">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="BL7" t="n">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="BM7" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="BN7" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="BO7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="BP7" t="n">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>63871.0</v>
+        <v>63871</v>
       </c>
       <c r="BK8" t="n">
-        <v>2636.0</v>
+        <v>2636</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5480.0</v>
+        <v>5480</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>146514.0</v>
+        <v>146514</v>
       </c>
       <c r="C9" t="n">
-        <v>49563.0</v>
+        <v>49563</v>
       </c>
       <c r="D9" t="n">
-        <v>22111.0</v>
+        <v>22111</v>
       </c>
       <c r="E9" t="n">
-        <v>4730.0</v>
+        <v>4730</v>
       </c>
       <c r="F9" t="n">
-        <v>50210.0</v>
+        <v>50210</v>
       </c>
       <c r="G9" t="n">
-        <v>19249.0</v>
+        <v>19249</v>
       </c>
       <c r="H9" t="n">
-        <v>2041.0</v>
+        <v>2041</v>
       </c>
       <c r="I9" t="n">
-        <v>12887.0</v>
+        <v>12887</v>
       </c>
       <c r="J9" t="n">
-        <v>-1467.0</v>
+        <v>-1467</v>
       </c>
       <c r="K9" t="n">
-        <v>17679.0</v>
+        <v>17679</v>
       </c>
       <c r="L9" t="n">
-        <v>13846.0</v>
+        <v>13846</v>
       </c>
       <c r="M9" t="n">
-        <v>2778.0</v>
+        <v>2778</v>
       </c>
       <c r="N9" t="n">
-        <v>2995.0</v>
+        <v>2995</v>
       </c>
       <c r="O9" t="n">
-        <v>6643.0</v>
+        <v>6643</v>
       </c>
       <c r="P9" t="n">
-        <v>3346.0</v>
+        <v>3346</v>
       </c>
       <c r="Q9" t="n">
-        <v>3712.0</v>
+        <v>3712</v>
       </c>
       <c r="R9" t="n">
-        <v>10777.0</v>
+        <v>10777</v>
       </c>
       <c r="S9" t="n">
-        <v>2485.0</v>
+        <v>2485</v>
       </c>
       <c r="T9" t="n">
-        <v>28675.0</v>
+        <v>28675</v>
       </c>
       <c r="U9" t="n">
-        <v>2231.0</v>
+        <v>2231</v>
       </c>
       <c r="V9" t="n">
-        <v>13230.0</v>
+        <v>13230</v>
       </c>
       <c r="W9" t="n">
-        <v>5183.0</v>
+        <v>5183</v>
       </c>
       <c r="X9" t="n">
-        <v>2469.0</v>
+        <v>2469</v>
       </c>
       <c r="Y9" t="n">
-        <v>11449.0</v>
+        <v>11449</v>
       </c>
       <c r="Z9" t="n">
-        <v>4758.0</v>
+        <v>4758</v>
       </c>
       <c r="AA9" t="n">
-        <v>7039.0</v>
+        <v>7039</v>
       </c>
       <c r="AB9" t="n">
-        <v>8988.0</v>
+        <v>8988</v>
       </c>
       <c r="AC9" t="n">
-        <v>6353.0</v>
+        <v>6353</v>
       </c>
       <c r="AD9" t="n">
-        <v>10815.0</v>
+        <v>10815</v>
       </c>
       <c r="AE9" t="n">
-        <v>2831.0</v>
+        <v>2831</v>
       </c>
       <c r="AF9" t="n">
-        <v>2034.0</v>
+        <v>2034</v>
       </c>
       <c r="AG9" t="n">
-        <v>8546.0</v>
+        <v>8546</v>
       </c>
       <c r="AH9" t="n">
-        <v>1349.0</v>
+        <v>1349</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1947.0</v>
+        <v>1947</v>
       </c>
       <c r="AK9" t="n">
-        <v>14643.0</v>
+        <v>14643</v>
       </c>
       <c r="AL9" t="n">
-        <v>9915.0</v>
+        <v>9915</v>
       </c>
       <c r="AM9" t="n">
-        <v>68025.0</v>
+        <v>68025</v>
       </c>
       <c r="AN9" t="n">
-        <v>20299.0</v>
+        <v>20299</v>
       </c>
       <c r="AO9" t="n">
-        <v>165926.0</v>
+        <v>165926</v>
       </c>
       <c r="AP9" t="n">
-        <v>40840.0</v>
+        <v>40840</v>
       </c>
       <c r="AQ9" t="n">
-        <v>290340.0</v>
+        <v>290340</v>
       </c>
       <c r="AR9" t="n">
-        <v>66875.0</v>
+        <v>66875</v>
       </c>
       <c r="AS9" t="n">
-        <v>3340.0</v>
+        <v>3340</v>
       </c>
       <c r="AT9" t="n">
-        <v>-758.0</v>
+        <v>-758</v>
       </c>
       <c r="AU9" t="n">
-        <v>22668.0</v>
+        <v>22668</v>
       </c>
       <c r="AV9" t="n">
-        <v>3197.0</v>
+        <v>3197</v>
       </c>
       <c r="AW9" t="n">
-        <v>60264.0</v>
+        <v>60264</v>
       </c>
       <c r="AX9" t="n">
-        <v>1524.0</v>
+        <v>1524</v>
       </c>
       <c r="AY9" t="n">
-        <v>7575.0</v>
+        <v>7575</v>
       </c>
       <c r="AZ9" t="n">
-        <v>43380.0</v>
+        <v>43380</v>
       </c>
       <c r="BA9" t="n">
-        <v>34428.0</v>
+        <v>34428</v>
       </c>
       <c r="BB9" t="n">
-        <v>214756.0</v>
+        <v>214756</v>
       </c>
       <c r="BC9" t="n">
-        <v>491813.0</v>
+        <v>491813</v>
       </c>
       <c r="BD9" t="n">
-        <v>71058.0</v>
+        <v>71058</v>
       </c>
       <c r="BE9" t="n">
-        <v>22840.0</v>
+        <v>22840</v>
       </c>
       <c r="BF9" t="n">
-        <v>21856.0</v>
+        <v>21856</v>
       </c>
       <c r="BG9" t="n">
-        <v>18764.0</v>
+        <v>18764</v>
       </c>
       <c r="BH9" t="n">
-        <v>44318.0</v>
+        <v>44318</v>
       </c>
       <c r="BI9" t="n">
-        <v>3759.0</v>
+        <v>3759</v>
       </c>
       <c r="BJ9" t="n">
-        <v>70971.0</v>
+        <v>70971</v>
       </c>
       <c r="BK9" t="n">
-        <v>11151.0</v>
+        <v>11151</v>
       </c>
       <c r="BL9" t="n">
-        <v>5870.0</v>
+        <v>5870</v>
       </c>
       <c r="BM9" t="n">
-        <v>5467.0</v>
+        <v>5467</v>
       </c>
       <c r="BN9" t="n">
-        <v>63339.0</v>
+        <v>63339</v>
       </c>
       <c r="BO9" t="n">
-        <v>7912.0</v>
+        <v>7912</v>
       </c>
       <c r="BP9" t="n">
-        <v>30470.0</v>
+        <v>30470</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>77633.0</v>
+        <v>77633</v>
       </c>
       <c r="C10" t="n">
-        <v>37454.0</v>
+        <v>37454</v>
       </c>
       <c r="D10" t="n">
-        <v>11309.0</v>
+        <v>11309</v>
       </c>
       <c r="E10" t="n">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3324.0</v>
+        <v>3324</v>
       </c>
       <c r="L10" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1437.0</v>
+        <v>1437</v>
       </c>
       <c r="O10" t="n">
-        <v>5567.0</v>
+        <v>5567</v>
       </c>
       <c r="P10" t="n">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
-        <v>1521.0</v>
+        <v>1521</v>
       </c>
       <c r="R10" t="n">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="S10" t="n">
-        <v>576.0</v>
+        <v>576</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="AA10" t="n">
-        <v>1049.0</v>
+        <v>1049</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-11.0</v>
+        <v>-11</v>
       </c>
       <c r="AD10" t="n">
-        <v>2775.0</v>
+        <v>2775</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>1373.0</v>
+        <v>1373</v>
       </c>
       <c r="AL10" t="n">
-        <v>3900.0</v>
+        <v>3900</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1755.0</v>
+        <v>1755</v>
       </c>
       <c r="AO10" t="n">
-        <v>79250.0</v>
+        <v>79250</v>
       </c>
       <c r="AP10" t="n">
-        <v>20491.0</v>
+        <v>20491</v>
       </c>
       <c r="AQ10" t="n">
-        <v>56609.0</v>
+        <v>56609</v>
       </c>
       <c r="AR10" t="n">
-        <v>20784.0</v>
+        <v>20784</v>
       </c>
       <c r="AS10" t="n">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="AV10" t="n">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="AW10" t="n">
-        <v>34486.0</v>
+        <v>34486</v>
       </c>
       <c r="AX10" t="n">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="AY10" t="n">
-        <v>748.0</v>
+        <v>748</v>
       </c>
       <c r="AZ10" t="n">
-        <v>533.0</v>
+        <v>533</v>
       </c>
       <c r="BA10" t="n">
-        <v>7105.0</v>
+        <v>7105</v>
       </c>
       <c r="BB10" t="n">
-        <v>2160.0</v>
+        <v>2160</v>
       </c>
       <c r="BC10" t="n">
-        <v>4533.0</v>
+        <v>4533</v>
       </c>
       <c r="BD10" t="n">
-        <v>28590.0</v>
+        <v>28590</v>
       </c>
       <c r="BE10" t="n">
-        <v>10248.0</v>
+        <v>10248</v>
       </c>
       <c r="BF10" t="n">
-        <v>5467.0</v>
+        <v>5467</v>
       </c>
       <c r="BG10" t="n">
-        <v>684.0</v>
+        <v>684</v>
       </c>
       <c r="BH10" t="n">
-        <v>6437.0</v>
+        <v>6437</v>
       </c>
       <c r="BI10" t="n">
-        <v>892.0</v>
+        <v>892</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>5307.0</v>
+        <v>5307</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>31064.0</v>
+        <v>31064</v>
       </c>
       <c r="BO10" t="n">
-        <v>5252.0</v>
+        <v>5252</v>
       </c>
       <c r="BP10" t="n">
-        <v>24089.0</v>
+        <v>24089</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>68881.0</v>
+        <v>68881</v>
       </c>
       <c r="C11" t="n">
-        <v>12109.0</v>
+        <v>12109</v>
       </c>
       <c r="D11" t="n">
-        <v>10802.0</v>
+        <v>10802</v>
       </c>
       <c r="E11" t="n">
-        <v>4336.0</v>
+        <v>4336</v>
       </c>
       <c r="F11" t="n">
-        <v>50210.0</v>
+        <v>50210</v>
       </c>
       <c r="G11" t="n">
-        <v>19249.0</v>
+        <v>19249</v>
       </c>
       <c r="H11" t="n">
-        <v>2041.0</v>
+        <v>2041</v>
       </c>
       <c r="I11" t="n">
-        <v>12479.0</v>
+        <v>12479</v>
       </c>
       <c r="J11" t="n">
-        <v>-1467.0</v>
+        <v>-1467</v>
       </c>
       <c r="K11" t="n">
-        <v>14355.0</v>
+        <v>14355</v>
       </c>
       <c r="L11" t="n">
-        <v>13825.0</v>
+        <v>13825</v>
       </c>
       <c r="M11" t="n">
-        <v>2778.0</v>
+        <v>2778</v>
       </c>
       <c r="N11" t="n">
-        <v>1558.0</v>
+        <v>1558</v>
       </c>
       <c r="O11" t="n">
-        <v>1076.0</v>
+        <v>1076</v>
       </c>
       <c r="P11" t="n">
-        <v>2886.0</v>
+        <v>2886</v>
       </c>
       <c r="Q11" t="n">
-        <v>2191.0</v>
+        <v>2191</v>
       </c>
       <c r="R11" t="n">
-        <v>10531.0</v>
+        <v>10531</v>
       </c>
       <c r="S11" t="n">
-        <v>1909.0</v>
+        <v>1909</v>
       </c>
       <c r="T11" t="n">
-        <v>28675.0</v>
+        <v>28675</v>
       </c>
       <c r="U11" t="n">
-        <v>2231.0</v>
+        <v>2231</v>
       </c>
       <c r="V11" t="n">
-        <v>13230.0</v>
+        <v>13230</v>
       </c>
       <c r="W11" t="n">
-        <v>5183.0</v>
+        <v>5183</v>
       </c>
       <c r="X11" t="n">
-        <v>1929.0</v>
+        <v>1929</v>
       </c>
       <c r="Y11" t="n">
-        <v>11449.0</v>
+        <v>11449</v>
       </c>
       <c r="Z11" t="n">
-        <v>4513.0</v>
+        <v>4513</v>
       </c>
       <c r="AA11" t="n">
-        <v>5990.0</v>
+        <v>5990</v>
       </c>
       <c r="AB11" t="n">
-        <v>8988.0</v>
+        <v>8988</v>
       </c>
       <c r="AC11" t="n">
-        <v>6364.0</v>
+        <v>6364</v>
       </c>
       <c r="AD11" t="n">
-        <v>8040.0</v>
+        <v>8040</v>
       </c>
       <c r="AE11" t="n">
-        <v>2831.0</v>
+        <v>2831</v>
       </c>
       <c r="AF11" t="n">
-        <v>2034.0</v>
+        <v>2034</v>
       </c>
       <c r="AG11" t="n">
-        <v>8546.0</v>
+        <v>8546</v>
       </c>
       <c r="AH11" t="n">
-        <v>1349.0</v>
+        <v>1349</v>
       </c>
       <c r="AI11" t="n">
-        <v>-28.0</v>
+        <v>-28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1931.0</v>
+        <v>1931</v>
       </c>
       <c r="AK11" t="n">
-        <v>13270.0</v>
+        <v>13270</v>
       </c>
       <c r="AL11" t="n">
-        <v>6015.0</v>
+        <v>6015</v>
       </c>
       <c r="AM11" t="n">
-        <v>68025.0</v>
+        <v>68025</v>
       </c>
       <c r="AN11" t="n">
-        <v>18544.0</v>
+        <v>18544</v>
       </c>
       <c r="AO11" t="n">
-        <v>86676.0</v>
+        <v>86676</v>
       </c>
       <c r="AP11" t="n">
-        <v>20349.0</v>
+        <v>20349</v>
       </c>
       <c r="AQ11" t="n">
-        <v>233731.0</v>
+        <v>233731</v>
       </c>
       <c r="AR11" t="n">
-        <v>46091.0</v>
+        <v>46091</v>
       </c>
       <c r="AS11" t="n">
-        <v>3011.0</v>
+        <v>3011</v>
       </c>
       <c r="AT11" t="n">
-        <v>-758.0</v>
+        <v>-758</v>
       </c>
       <c r="AU11" t="n">
-        <v>21712.0</v>
+        <v>21712</v>
       </c>
       <c r="AV11" t="n">
-        <v>2242.0</v>
+        <v>2242</v>
       </c>
       <c r="AW11" t="n">
-        <v>25778.0</v>
+        <v>25778</v>
       </c>
       <c r="AX11" t="n">
-        <v>1107.0</v>
+        <v>1107</v>
       </c>
       <c r="AY11" t="n">
-        <v>6827.0</v>
+        <v>6827</v>
       </c>
       <c r="AZ11" t="n">
-        <v>42847.0</v>
+        <v>42847</v>
       </c>
       <c r="BA11" t="n">
-        <v>27323.0</v>
+        <v>27323</v>
       </c>
       <c r="BB11" t="n">
-        <v>212596.0</v>
+        <v>212596</v>
       </c>
       <c r="BC11" t="n">
-        <v>487280.0</v>
+        <v>487280</v>
       </c>
       <c r="BD11" t="n">
-        <v>42468.0</v>
+        <v>42468</v>
       </c>
       <c r="BE11" t="n">
-        <v>12592.0</v>
+        <v>12592</v>
       </c>
       <c r="BF11" t="n">
-        <v>16389.0</v>
+        <v>16389</v>
       </c>
       <c r="BG11" t="n">
-        <v>18080.0</v>
+        <v>18080</v>
       </c>
       <c r="BH11" t="n">
-        <v>37881.0</v>
+        <v>37881</v>
       </c>
       <c r="BI11" t="n">
-        <v>2867.0</v>
+        <v>2867</v>
       </c>
       <c r="BJ11" t="n">
-        <v>70971.0</v>
+        <v>70971</v>
       </c>
       <c r="BK11" t="n">
-        <v>11151.0</v>
+        <v>11151</v>
       </c>
       <c r="BL11" t="n">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="BM11" t="n">
-        <v>5467.0</v>
+        <v>5467</v>
       </c>
       <c r="BN11" t="n">
-        <v>32275.0</v>
+        <v>32275</v>
       </c>
       <c r="BO11" t="n">
-        <v>2660.0</v>
+        <v>2660</v>
       </c>
       <c r="BP11" t="n">
-        <v>6381.0</v>
+        <v>6381</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>1255.0</v>
+        <v>1255</v>
       </c>
       <c r="C12" t="n">
-        <v>564.0</v>
+        <v>564</v>
       </c>
       <c r="D12" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E12" t="n">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="F12" t="n">
-        <v>1210.0</v>
+        <v>1210</v>
       </c>
       <c r="G12" t="n">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="H12" t="n">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="I12" t="n">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="J12" t="n">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="K12" t="n">
-        <v>2126.0</v>
+        <v>2126</v>
       </c>
       <c r="L12" t="n">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="M12" t="n">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="N12" t="n">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="O12" t="n">
-        <v>583.0</v>
+        <v>583</v>
       </c>
       <c r="P12" t="n">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="R12" t="n">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="S12" t="n">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="T12" t="n">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="U12" t="n">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="V12" t="n">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="W12" t="n">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="X12" t="n">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="Y12" t="n">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="Z12" t="n">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="AA12" t="n">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="AB12" t="n">
-        <v>766.0</v>
+        <v>766</v>
       </c>
       <c r="AC12" t="n">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="AD12" t="n">
-        <v>926.0</v>
+        <v>926</v>
       </c>
       <c r="AE12" t="n">
-        <v>768.0</v>
+        <v>768</v>
       </c>
       <c r="AF12" t="n">
-        <v>671.0</v>
+        <v>671</v>
       </c>
       <c r="AG12" t="n">
-        <v>1215.0</v>
+        <v>1215</v>
       </c>
       <c r="AH12" t="n">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="AI12" t="n">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="AJ12" t="n">
-        <v>474.0</v>
+        <v>474</v>
       </c>
       <c r="AK12" t="n">
-        <v>643.0</v>
+        <v>643</v>
       </c>
       <c r="AL12" t="n">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="AM12" t="n">
-        <v>2114.0</v>
+        <v>2114</v>
       </c>
       <c r="AN12" t="n">
-        <v>656.0</v>
+        <v>656</v>
       </c>
       <c r="AO12" t="n">
-        <v>4023.0</v>
+        <v>4023</v>
       </c>
       <c r="AP12" t="n">
-        <v>1271.0</v>
+        <v>1271</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10006.0</v>
+        <v>10006</v>
       </c>
       <c r="AR12" t="n">
-        <v>2944.0</v>
+        <v>2944</v>
       </c>
       <c r="AS12" t="n">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="AT12" t="n">
-        <v>574.0</v>
+        <v>574</v>
       </c>
       <c r="AU12" t="n">
-        <v>1611.0</v>
+        <v>1611</v>
       </c>
       <c r="AV12" t="n">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="AW12" t="n">
-        <v>1374.0</v>
+        <v>1374</v>
       </c>
       <c r="AX12" t="n">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="AY12" t="n">
-        <v>1273.0</v>
+        <v>1273</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4701.0</v>
+        <v>4701</v>
       </c>
       <c r="BA12" t="n">
-        <v>1570.0</v>
+        <v>1570</v>
       </c>
       <c r="BB12" t="n">
-        <v>7277.0</v>
+        <v>7277</v>
       </c>
       <c r="BC12" t="n">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="BD12" t="n">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="BE12" t="n">
-        <v>712.0</v>
+        <v>712</v>
       </c>
       <c r="BF12" t="n">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="BG12" t="n">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="BH12" t="n">
-        <v>2724.0</v>
+        <v>2724</v>
       </c>
       <c r="BI12" t="n">
-        <v>872.0</v>
+        <v>872</v>
       </c>
       <c r="BJ12" t="n">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="BK12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BL12" t="n">
-        <v>2064.0</v>
+        <v>2064</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BN12" t="n">
-        <v>2209.0</v>
+        <v>2209</v>
       </c>
       <c r="BO12" t="n">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="BP12" t="n">
-        <v>1048.0</v>
+        <v>1048</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>-10763.0</v>
+        <v>-10763</v>
       </c>
       <c r="C13" t="n">
-        <v>-168.0</v>
+        <v>-168</v>
       </c>
       <c r="D13" t="n">
-        <v>-42.0</v>
+        <v>-42</v>
       </c>
       <c r="E13" t="n">
-        <v>-91.0</v>
+        <v>-91</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-36.0</v>
+        <v>-36</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-121.0</v>
+        <v>-121</v>
       </c>
       <c r="J13" t="n">
-        <v>-169.0</v>
+        <v>-169</v>
       </c>
       <c r="K13" t="n">
-        <v>-157.0</v>
+        <v>-157</v>
       </c>
       <c r="L13" t="n">
-        <v>-47.0</v>
+        <v>-47</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-31.0</v>
+        <v>-31</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-46.0</v>
+        <v>-46</v>
       </c>
       <c r="R13" t="n">
-        <v>-118.0</v>
+        <v>-118</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-223.0</v>
+        <v>-223</v>
       </c>
       <c r="U13" t="n">
-        <v>-198.0</v>
+        <v>-198</v>
       </c>
       <c r="V13" t="n">
-        <v>-45.0</v>
+        <v>-45</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-31.0</v>
+        <v>-31</v>
       </c>
       <c r="Z13" t="n">
-        <v>-178.0</v>
+        <v>-178</v>
       </c>
       <c r="AA13" t="n">
-        <v>-147.0</v>
+        <v>-147</v>
       </c>
       <c r="AB13" t="n">
-        <v>-80.0</v>
+        <v>-80</v>
       </c>
       <c r="AC13" t="n">
-        <v>-41.0</v>
+        <v>-41</v>
       </c>
       <c r="AD13" t="n">
-        <v>-98.0</v>
+        <v>-98</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-110.0</v>
+        <v>-110</v>
       </c>
       <c r="AG13" t="n">
-        <v>-289.0</v>
+        <v>-289</v>
       </c>
       <c r="AH13" t="n">
-        <v>-326.0</v>
+        <v>-326</v>
       </c>
       <c r="AI13" t="n">
-        <v>-266.0</v>
+        <v>-266</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-74.0</v>
+        <v>-74</v>
       </c>
       <c r="AK13" t="n">
-        <v>-42.0</v>
+        <v>-42</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-807.0</v>
+        <v>-807</v>
       </c>
       <c r="AN13" t="n">
-        <v>-46.0</v>
+        <v>-46</v>
       </c>
       <c r="AO13" t="n">
-        <v>-540.0</v>
+        <v>-540</v>
       </c>
       <c r="AP13" t="n">
-        <v>-42.0</v>
+        <v>-42</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1375.0</v>
+        <v>-1375</v>
       </c>
       <c r="AR13" t="n">
-        <v>-2421.0</v>
+        <v>-2421</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-37.0</v>
+        <v>-37</v>
       </c>
       <c r="AU13" t="n">
-        <v>-72.0</v>
+        <v>-72</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-95.0</v>
+        <v>-95</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-642.0</v>
+        <v>-642</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-230.0</v>
+        <v>-230</v>
       </c>
       <c r="BH13" t="n">
-        <v>-72.0</v>
+        <v>-72</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-36.0</v>
+        <v>-36</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>309301.0</v>
+        <v>309301</v>
       </c>
       <c r="C14" t="n">
-        <v>137018.0</v>
+        <v>137018</v>
       </c>
       <c r="D14" t="n">
-        <v>32411.0</v>
+        <v>32411</v>
       </c>
       <c r="E14" t="n">
-        <v>19733.0</v>
+        <v>19733</v>
       </c>
       <c r="F14" t="n">
-        <v>171984.0</v>
+        <v>171984</v>
       </c>
       <c r="G14" t="n">
-        <v>52753.0</v>
+        <v>52753</v>
       </c>
       <c r="H14" t="n">
-        <v>16103.0</v>
+        <v>16103</v>
       </c>
       <c r="I14" t="n">
-        <v>255198.0</v>
+        <v>255198</v>
       </c>
       <c r="J14" t="n">
-        <v>48066.0</v>
+        <v>48066</v>
       </c>
       <c r="K14" t="n">
-        <v>253228.0</v>
+        <v>253228</v>
       </c>
       <c r="L14" t="n">
-        <v>76444.0</v>
+        <v>76444</v>
       </c>
       <c r="M14" t="n">
-        <v>15084.0</v>
+        <v>15084</v>
       </c>
       <c r="N14" t="n">
-        <v>46430.0</v>
+        <v>46430</v>
       </c>
       <c r="O14" t="n">
-        <v>61302.0</v>
+        <v>61302</v>
       </c>
       <c r="P14" t="n">
-        <v>40232.0</v>
+        <v>40232</v>
       </c>
       <c r="Q14" t="n">
-        <v>26588.0</v>
+        <v>26588</v>
       </c>
       <c r="R14" t="n">
-        <v>80337.0</v>
+        <v>80337</v>
       </c>
       <c r="S14" t="n">
-        <v>19473.0</v>
+        <v>19473</v>
       </c>
       <c r="T14" t="n">
-        <v>373349.0</v>
+        <v>373349</v>
       </c>
       <c r="U14" t="n">
-        <v>42841.0</v>
+        <v>42841</v>
       </c>
       <c r="V14" t="n">
-        <v>145533.0</v>
+        <v>145533</v>
       </c>
       <c r="W14" t="n">
-        <v>74484.0</v>
+        <v>74484</v>
       </c>
       <c r="X14" t="n">
-        <v>40475.0</v>
+        <v>40475</v>
       </c>
       <c r="Y14" t="n">
-        <v>57972.0</v>
+        <v>57972</v>
       </c>
       <c r="Z14" t="n">
-        <v>101171.0</v>
+        <v>101171</v>
       </c>
       <c r="AA14" t="n">
-        <v>89569.0</v>
+        <v>89569</v>
       </c>
       <c r="AB14" t="n">
-        <v>101592.0</v>
+        <v>101592</v>
       </c>
       <c r="AC14" t="n">
-        <v>57162.0</v>
+        <v>57162</v>
       </c>
       <c r="AD14" t="n">
-        <v>91269.0</v>
+        <v>91269</v>
       </c>
       <c r="AE14" t="n">
-        <v>85209.0</v>
+        <v>85209</v>
       </c>
       <c r="AF14" t="n">
-        <v>71998.0</v>
+        <v>71998</v>
       </c>
       <c r="AG14" t="n">
-        <v>120638.0</v>
+        <v>120638</v>
       </c>
       <c r="AH14" t="n">
-        <v>146446.0</v>
+        <v>146446</v>
       </c>
       <c r="AI14" t="n">
-        <v>70497.0</v>
+        <v>70497</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51015.0</v>
+        <v>51015</v>
       </c>
       <c r="AK14" t="n">
-        <v>70398.0</v>
+        <v>70398</v>
       </c>
       <c r="AL14" t="n">
-        <v>62460.0</v>
+        <v>62460</v>
       </c>
       <c r="AM14" t="n">
-        <v>260753.0</v>
+        <v>260753</v>
       </c>
       <c r="AN14" t="n">
-        <v>62845.0</v>
+        <v>62845</v>
       </c>
       <c r="AO14" t="n">
-        <v>632308.0</v>
+        <v>632308</v>
       </c>
       <c r="AP14" t="n">
-        <v>146401.0</v>
+        <v>146401</v>
       </c>
       <c r="AQ14" t="n">
-        <v>954362.0</v>
+        <v>954362</v>
       </c>
       <c r="AR14" t="n">
-        <v>332855.0</v>
+        <v>332855</v>
       </c>
       <c r="AS14" t="n">
-        <v>20080.0</v>
+        <v>20080</v>
       </c>
       <c r="AT14" t="n">
-        <v>37338.0</v>
+        <v>37338</v>
       </c>
       <c r="AU14" t="n">
-        <v>115144.0</v>
+        <v>115144</v>
       </c>
       <c r="AV14" t="n">
-        <v>23990.0</v>
+        <v>23990</v>
       </c>
       <c r="AW14" t="n">
-        <v>223426.0</v>
+        <v>223426</v>
       </c>
       <c r="AX14" t="n">
-        <v>20486.0</v>
+        <v>20486</v>
       </c>
       <c r="AY14" t="n">
-        <v>43404.0</v>
+        <v>43404</v>
       </c>
       <c r="AZ14" t="n">
-        <v>161039.0</v>
+        <v>161039</v>
       </c>
       <c r="BA14" t="n">
-        <v>125537.0</v>
+        <v>125537</v>
       </c>
       <c r="BB14" t="n">
-        <v>574611.0</v>
+        <v>574611</v>
       </c>
       <c r="BC14" t="n">
-        <v>545929.0</v>
+        <v>545929</v>
       </c>
       <c r="BD14" t="n">
-        <v>187868.0</v>
+        <v>187868</v>
       </c>
       <c r="BE14" t="n">
-        <v>70844.0</v>
+        <v>70844</v>
       </c>
       <c r="BF14" t="n">
-        <v>94350.0</v>
+        <v>94350</v>
       </c>
       <c r="BG14" t="n">
-        <v>45657.0</v>
+        <v>45657</v>
       </c>
       <c r="BH14" t="n">
-        <v>208430.0</v>
+        <v>208430</v>
       </c>
       <c r="BI14" t="n">
-        <v>39955.0</v>
+        <v>39955</v>
       </c>
       <c r="BJ14" t="n">
-        <v>719620.0</v>
+        <v>719620</v>
       </c>
       <c r="BK14" t="n">
-        <v>309034.0</v>
+        <v>309034</v>
       </c>
       <c r="BL14" t="n">
-        <v>110787.0</v>
+        <v>110787</v>
       </c>
       <c r="BM14" t="n">
-        <v>179155.0</v>
+        <v>179155</v>
       </c>
       <c r="BN14" t="n">
-        <v>222681.0</v>
+        <v>222681</v>
       </c>
       <c r="BO14" t="n">
-        <v>34631.0</v>
+        <v>34631</v>
       </c>
       <c r="BP14" t="n">
-        <v>145590.0</v>
+        <v>145590</v>
       </c>
       <c r="BQ14" t="n">
-        <v>61996.0</v>
+        <v>61996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>5972110.0</v>
+        <v>5972110</v>
       </c>
       <c r="C15" t="n">
-        <v>6200828.0</v>
+        <v>6200828</v>
       </c>
       <c r="D15" t="n">
-        <v>964588.0</v>
+        <v>964588</v>
       </c>
       <c r="E15" t="n">
-        <v>134859.0</v>
+        <v>134859</v>
       </c>
       <c r="F15" t="n">
-        <v>68449.0</v>
+        <v>68449</v>
       </c>
       <c r="G15" t="n">
-        <v>50343.0</v>
+        <v>50343</v>
       </c>
       <c r="H15" t="n">
-        <v>33905.0</v>
+        <v>33905</v>
       </c>
       <c r="I15" t="n">
-        <v>736988.0</v>
+        <v>736988</v>
       </c>
       <c r="J15" t="n">
-        <v>181114.0</v>
+        <v>181114</v>
       </c>
       <c r="K15" t="n">
-        <v>1236883.0</v>
+        <v>1236883</v>
       </c>
       <c r="L15" t="n">
-        <v>192632.0</v>
+        <v>192632</v>
       </c>
       <c r="M15" t="n">
-        <v>18171.0</v>
+        <v>18171</v>
       </c>
       <c r="N15" t="n">
-        <v>619475.0</v>
+        <v>619475</v>
       </c>
       <c r="O15" t="n">
-        <v>1695059.0</v>
+        <v>1695059</v>
       </c>
       <c r="P15" t="n">
-        <v>488656.0</v>
+        <v>488656</v>
       </c>
       <c r="Q15" t="n">
-        <v>381692.0</v>
+        <v>381692</v>
       </c>
       <c r="R15" t="n">
-        <v>201698.0</v>
+        <v>201698</v>
       </c>
       <c r="S15" t="n">
-        <v>199031.0</v>
+        <v>199031</v>
       </c>
       <c r="T15" t="n">
-        <v>23131.0</v>
+        <v>23131</v>
       </c>
       <c r="U15" t="n">
-        <v>107197.0</v>
+        <v>107197</v>
       </c>
       <c r="V15" t="n">
-        <v>101155.0</v>
+        <v>101155</v>
       </c>
       <c r="W15" t="n">
-        <v>95169.0</v>
+        <v>95169</v>
       </c>
       <c r="X15" t="n">
-        <v>140031.0</v>
+        <v>140031</v>
       </c>
       <c r="Y15" t="n">
-        <v>102511.0</v>
+        <v>102511</v>
       </c>
       <c r="Z15" t="n">
-        <v>445991.0</v>
+        <v>445991</v>
       </c>
       <c r="AA15" t="n">
-        <v>654035.0</v>
+        <v>654035</v>
       </c>
       <c r="AB15" t="n">
-        <v>123856.0</v>
+        <v>123856</v>
       </c>
       <c r="AC15" t="n">
-        <v>100824.0</v>
+        <v>100824</v>
       </c>
       <c r="AD15" t="n">
-        <v>724817.0</v>
+        <v>724817</v>
       </c>
       <c r="AE15" t="n">
-        <v>144018.0</v>
+        <v>144018</v>
       </c>
       <c r="AF15" t="n">
-        <v>222892.0</v>
+        <v>222892</v>
       </c>
       <c r="AG15" t="n">
-        <v>410002.0</v>
+        <v>410002</v>
       </c>
       <c r="AH15" t="n">
-        <v>170072.0</v>
+        <v>170072</v>
       </c>
       <c r="AI15" t="n">
-        <v>287368.0</v>
+        <v>287368</v>
       </c>
       <c r="AJ15" t="n">
-        <v>114099.0</v>
+        <v>114099</v>
       </c>
       <c r="AK15" t="n">
-        <v>785915.0</v>
+        <v>785915</v>
       </c>
       <c r="AL15" t="n">
-        <v>509033.0</v>
+        <v>509033</v>
       </c>
       <c r="AM15" t="n">
-        <v>153226.0</v>
+        <v>153226</v>
       </c>
       <c r="AN15" t="n">
-        <v>524195.0</v>
+        <v>524195</v>
       </c>
       <c r="AO15" t="n">
-        <v>8639884.0</v>
+        <v>8639884</v>
       </c>
       <c r="AP15" t="n">
-        <v>2905544.0</v>
+        <v>2905544</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5967829E7</v>
+        <v>15967829</v>
       </c>
       <c r="AR15" t="n">
-        <v>3779892.0</v>
+        <v>3779892</v>
       </c>
       <c r="AS15" t="n">
-        <v>58938.0</v>
+        <v>58938</v>
       </c>
       <c r="AT15" t="n">
-        <v>66660.0</v>
+        <v>66660</v>
       </c>
       <c r="AU15" t="n">
-        <v>815610.0</v>
+        <v>815610</v>
       </c>
       <c r="AV15" t="n">
-        <v>445903.0</v>
+        <v>445903</v>
       </c>
       <c r="AW15" t="n">
-        <v>4940057.0</v>
+        <v>4940057</v>
       </c>
       <c r="AX15" t="n">
-        <v>166749.0</v>
+        <v>166749</v>
       </c>
       <c r="AY15" t="n">
-        <v>174489.0</v>
+        <v>174489</v>
       </c>
       <c r="AZ15" t="n">
-        <v>233286.0</v>
+        <v>233286</v>
       </c>
       <c r="BA15" t="n">
-        <v>775233.0</v>
+        <v>775233</v>
       </c>
       <c r="BB15" t="n">
-        <v>1199865.0</v>
+        <v>1199865</v>
       </c>
       <c r="BC15" t="n">
-        <v>417053.0</v>
+        <v>417053</v>
       </c>
       <c r="BD15" t="n">
-        <v>1710900.0</v>
+        <v>1710900</v>
       </c>
       <c r="BE15" t="n">
-        <v>584968.0</v>
+        <v>584968</v>
       </c>
       <c r="BF15" t="n">
-        <v>502393.0</v>
+        <v>502393</v>
       </c>
       <c r="BG15" t="n">
-        <v>328703.0</v>
+        <v>328703</v>
       </c>
       <c r="BH15" t="n">
-        <v>4133277.0</v>
+        <v>4133277</v>
       </c>
       <c r="BI15" t="n">
-        <v>864070.0</v>
+        <v>864070</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5093330.0</v>
+        <v>5093330</v>
       </c>
       <c r="BK15" t="n">
-        <v>4170739.0</v>
+        <v>4170739</v>
       </c>
       <c r="BL15" t="n">
-        <v>2484459.0</v>
+        <v>2484459</v>
       </c>
       <c r="BM15" t="n">
-        <v>1903462.0</v>
+        <v>1903462</v>
       </c>
       <c r="BN15" t="n">
-        <v>2908293.0</v>
+        <v>2908293</v>
       </c>
       <c r="BO15" t="n">
-        <v>986109.0</v>
+        <v>986109</v>
       </c>
       <c r="BP15" t="n">
-        <v>4000141.0</v>
+        <v>4000141</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6381222.0</v>
+        <v>6381222</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2015.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2015.xlsx
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2015.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2015.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>163127</v>
+        <v>163127.0</v>
       </c>
       <c r="C2" t="n">
-        <v>71449</v>
+        <v>71449.0</v>
       </c>
       <c r="D2" t="n">
-        <v>24391</v>
+        <v>24391.0</v>
       </c>
       <c r="E2" t="n">
-        <v>8856</v>
+        <v>8856.0</v>
       </c>
       <c r="F2" t="n">
-        <v>73558</v>
+        <v>73558.0</v>
       </c>
       <c r="G2" t="n">
-        <v>23916</v>
+        <v>23916.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4443</v>
+        <v>4443.0</v>
       </c>
       <c r="I2" t="n">
-        <v>40377</v>
+        <v>40377.0</v>
       </c>
       <c r="J2" t="n">
-        <v>7388</v>
+        <v>7388.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48541</v>
+        <v>48541.0</v>
       </c>
       <c r="L2" t="n">
-        <v>22923</v>
+        <v>22923.0</v>
       </c>
       <c r="M2" t="n">
-        <v>4258</v>
+        <v>4258.0</v>
       </c>
       <c r="N2" t="n">
-        <v>13375</v>
+        <v>13375.0</v>
       </c>
       <c r="O2" t="n">
-        <v>24929</v>
+        <v>24929.0</v>
       </c>
       <c r="P2" t="n">
-        <v>13536</v>
+        <v>13536.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9840</v>
+        <v>9840.0</v>
       </c>
       <c r="R2" t="n">
-        <v>22787</v>
+        <v>22787.0</v>
       </c>
       <c r="S2" t="n">
-        <v>8396</v>
+        <v>8396.0</v>
       </c>
       <c r="T2" t="n">
-        <v>36427</v>
+        <v>36427.0</v>
       </c>
       <c r="U2" t="n">
-        <v>8680</v>
+        <v>8680.0</v>
       </c>
       <c r="V2" t="n">
-        <v>25439</v>
+        <v>25439.0</v>
       </c>
       <c r="W2" t="n">
-        <v>15095</v>
+        <v>15095.0</v>
       </c>
       <c r="X2" t="n">
-        <v>8397</v>
+        <v>8397.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23147</v>
+        <v>23147.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>26077</v>
+        <v>26077.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>27750</v>
+        <v>27750.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>21747</v>
+        <v>21747.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>12555</v>
+        <v>12555.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>34302</v>
+        <v>34302.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>13715</v>
+        <v>13715.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>17037</v>
+        <v>17037.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>37643</v>
+        <v>37643.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>22410</v>
+        <v>22410.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>18416</v>
+        <v>18416.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12065</v>
+        <v>12065.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>31376</v>
+        <v>31376.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>22185</v>
+        <v>22185.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>85465</v>
+        <v>85465.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>37718</v>
+        <v>37718.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>296018</v>
+        <v>296018.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>86906</v>
+        <v>86906.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>598802</v>
+        <v>598802.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>145771</v>
+        <v>145771.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>8758</v>
+        <v>8758.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>6882</v>
+        <v>6882.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>65089</v>
+        <v>65089.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>13124</v>
+        <v>13124.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>109506</v>
+        <v>109506.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>8757</v>
+        <v>8757.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>19242</v>
+        <v>19242.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>65303</v>
+        <v>65303.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>82702</v>
+        <v>82702.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>365276</v>
+        <v>365276.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>498884</v>
+        <v>498884.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>125524</v>
+        <v>125524.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>44866</v>
+        <v>44866.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>33439</v>
+        <v>33439.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>29535</v>
+        <v>29535.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>146846</v>
+        <v>146846.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>32943</v>
+        <v>32943.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>509142</v>
+        <v>509142.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>257301</v>
+        <v>257301.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>76654</v>
+        <v>76654.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>119144</v>
+        <v>119144.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>133285</v>
+        <v>133285.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>19139</v>
+        <v>19139.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>71031</v>
+        <v>71031.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>61996</v>
+        <v>61996.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>26121</v>
+        <v>26121.0</v>
       </c>
       <c r="C3" t="n">
-        <v>21490</v>
+        <v>21490.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2199</v>
+        <v>2199.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4040</v>
+        <v>4040.0</v>
       </c>
       <c r="F3" t="n">
-        <v>22138</v>
+        <v>22138.0</v>
       </c>
       <c r="G3" t="n">
-        <v>4349</v>
+        <v>4349.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2264</v>
+        <v>2264.0</v>
       </c>
       <c r="I3" t="n">
-        <v>25736</v>
+        <v>25736.0</v>
       </c>
       <c r="J3" t="n">
-        <v>8420</v>
+        <v>8420.0</v>
       </c>
       <c r="K3" t="n">
-        <v>28893</v>
+        <v>28893.0</v>
       </c>
       <c r="L3" t="n">
-        <v>8407</v>
+        <v>8407.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1379</v>
+        <v>1379.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9992</v>
+        <v>9992.0</v>
       </c>
       <c r="O3" t="n">
-        <v>17703</v>
+        <v>17703.0</v>
       </c>
       <c r="P3" t="n">
-        <v>9781</v>
+        <v>9781.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5910</v>
+        <v>5910.0</v>
       </c>
       <c r="R3" t="n">
-        <v>11483</v>
+        <v>11483.0</v>
       </c>
       <c r="S3" t="n">
-        <v>5677</v>
+        <v>5677.0</v>
       </c>
       <c r="T3" t="n">
-        <v>6968</v>
+        <v>6968.0</v>
       </c>
       <c r="U3" t="n">
-        <v>6275</v>
+        <v>6275.0</v>
       </c>
       <c r="V3" t="n">
-        <v>11285</v>
+        <v>11285.0</v>
       </c>
       <c r="W3" t="n">
-        <v>9342</v>
+        <v>9342.0</v>
       </c>
       <c r="X3" t="n">
-        <v>5589</v>
+        <v>5589.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11215</v>
+        <v>11215.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>20552</v>
+        <v>20552.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>20003</v>
+        <v>20003.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>12073</v>
+        <v>12073.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>5838</v>
+        <v>5838.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>22659</v>
+        <v>22659.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>10116</v>
+        <v>10116.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>14442</v>
+        <v>14442.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>28171</v>
+        <v>28171.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>20227</v>
+        <v>20227.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>17896</v>
+        <v>17896.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9718</v>
+        <v>9718.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>16132</v>
+        <v>16132.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>11883</v>
+        <v>11883.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>16133</v>
+        <v>16133.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>16809</v>
+        <v>16809.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>126609</v>
+        <v>126609.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>44837</v>
+        <v>44837.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>299831</v>
+        <v>299831.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>78373</v>
+        <v>78373.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>5048</v>
+        <v>5048.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>7103</v>
+        <v>7103.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>40882</v>
+        <v>40882.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>9604</v>
+        <v>9604.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>47868</v>
+        <v>47868.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6996</v>
+        <v>6996.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>10394</v>
+        <v>10394.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17317</v>
+        <v>17317.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>46704</v>
+        <v>46704.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>143243</v>
+        <v>143243.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>6713</v>
+        <v>6713.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>52463</v>
+        <v>52463.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>21956</v>
+        <v>21956.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>11200</v>
+        <v>11200.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>10547</v>
+        <v>10547.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>99876</v>
+        <v>99876.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>28312</v>
+        <v>28312.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>438035</v>
+        <v>438035.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>246146</v>
+        <v>246146.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>68720</v>
+        <v>68720.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>113676</v>
+        <v>113676.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>67773</v>
+        <v>67773.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>10977</v>
+        <v>10977.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>39513</v>
+        <v>39513.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>61996</v>
+        <v>61996.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>22254</v>
+        <v>22254.0</v>
       </c>
       <c r="C4" t="n">
-        <v>18575</v>
+        <v>18575.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1856</v>
+        <v>1856.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3224</v>
+        <v>3224.0</v>
       </c>
       <c r="F4" t="n">
-        <v>15849</v>
+        <v>15849.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3469</v>
+        <v>3469.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1736</v>
+        <v>1736.0</v>
       </c>
       <c r="I4" t="n">
-        <v>20196</v>
+        <v>20196.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6247</v>
+        <v>6247.0</v>
       </c>
       <c r="K4" t="n">
-        <v>22969</v>
+        <v>22969.0</v>
       </c>
       <c r="L4" t="n">
-        <v>6604</v>
+        <v>6604.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1065</v>
+        <v>1065.0</v>
       </c>
       <c r="N4" t="n">
-        <v>8174</v>
+        <v>8174.0</v>
       </c>
       <c r="O4" t="n">
-        <v>14039</v>
+        <v>14039.0</v>
       </c>
       <c r="P4" t="n">
-        <v>8076</v>
+        <v>8076.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4889</v>
+        <v>4889.0</v>
       </c>
       <c r="R4" t="n">
-        <v>9106</v>
+        <v>9106.0</v>
       </c>
       <c r="S4" t="n">
-        <v>4608</v>
+        <v>4608.0</v>
       </c>
       <c r="T4" t="n">
-        <v>4718</v>
+        <v>4718.0</v>
       </c>
       <c r="U4" t="n">
-        <v>4849</v>
+        <v>4849.0</v>
       </c>
       <c r="V4" t="n">
-        <v>8698</v>
+        <v>8698.0</v>
       </c>
       <c r="W4" t="n">
-        <v>7172</v>
+        <v>7172.0</v>
       </c>
       <c r="X4" t="n">
-        <v>4411</v>
+        <v>4411.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>8608</v>
+        <v>8608.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>16060</v>
+        <v>16060.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>16198</v>
+        <v>16198.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>9483</v>
+        <v>9483.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4697</v>
+        <v>4697.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>18016</v>
+        <v>18016.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>8025</v>
+        <v>8025.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>11366</v>
+        <v>11366.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>22343</v>
+        <v>22343.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15645</v>
+        <v>15645.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>15091</v>
+        <v>15091.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7972</v>
+        <v>7972.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>13189</v>
+        <v>13189.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>9638</v>
+        <v>9638.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>11522</v>
+        <v>11522.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>12873</v>
+        <v>12873.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>102086</v>
+        <v>102086.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>36467</v>
+        <v>36467.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>238710</v>
+        <v>238710.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>64190</v>
+        <v>64190.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>4137</v>
+        <v>4137.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>5903</v>
+        <v>5903.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>32037</v>
+        <v>32037.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>8061</v>
+        <v>8061.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>40121</v>
+        <v>40121.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>5606</v>
+        <v>5606.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>8727</v>
+        <v>8727.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12978</v>
+        <v>12978.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>37524</v>
+        <v>37524.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>110559</v>
+        <v>110559.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>5378</v>
+        <v>5378.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>42869</v>
+        <v>42869.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>17629</v>
+        <v>17629.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>9031</v>
+        <v>9031.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>8432</v>
+        <v>8432.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>80791</v>
+        <v>80791.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>22229</v>
+        <v>22229.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>314574</v>
+        <v>314574.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>205444</v>
+        <v>205444.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>56800</v>
+        <v>56800.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>93245</v>
+        <v>93245.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>58386</v>
+        <v>58386.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>9416</v>
+        <v>9416.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>33222</v>
+        <v>33222.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>58786</v>
+        <v>58786.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>3867</v>
+        <v>3867.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2915</v>
+        <v>2915.0</v>
       </c>
       <c r="D5" t="n">
-        <v>343</v>
+        <v>343.0</v>
       </c>
       <c r="E5" t="n">
-        <v>816</v>
+        <v>816.0</v>
       </c>
       <c r="F5" t="n">
-        <v>6289</v>
+        <v>6289.0</v>
       </c>
       <c r="G5" t="n">
-        <v>880</v>
+        <v>880.0</v>
       </c>
       <c r="H5" t="n">
-        <v>528</v>
+        <v>528.0</v>
       </c>
       <c r="I5" t="n">
-        <v>5540</v>
+        <v>5540.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2173</v>
+        <v>2173.0</v>
       </c>
       <c r="K5" t="n">
-        <v>5924</v>
+        <v>5924.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1803</v>
+        <v>1803.0</v>
       </c>
       <c r="M5" t="n">
-        <v>314</v>
+        <v>314.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1818</v>
+        <v>1818.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3664</v>
+        <v>3664.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1705</v>
+        <v>1705.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1021</v>
+        <v>1021.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2377</v>
+        <v>2377.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1069</v>
+        <v>1069.0</v>
       </c>
       <c r="T5" t="n">
-        <v>2250</v>
+        <v>2250.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1426</v>
+        <v>1426.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2587</v>
+        <v>2587.0</v>
       </c>
       <c r="W5" t="n">
-        <v>2170</v>
+        <v>2170.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1178</v>
+        <v>1178.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2607</v>
+        <v>2607.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4492</v>
+        <v>4492.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3805</v>
+        <v>3805.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2590</v>
+        <v>2590.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1141</v>
+        <v>1141.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4643</v>
+        <v>4643.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>2091</v>
+        <v>2091.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>3076</v>
+        <v>3076.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5828</v>
+        <v>5828.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4582</v>
+        <v>4582.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>2805</v>
+        <v>2805.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1746</v>
+        <v>1746.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2943</v>
+        <v>2943.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>2245</v>
+        <v>2245.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>4611</v>
+        <v>4611.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>3936</v>
+        <v>3936.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>24523</v>
+        <v>24523.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>8370</v>
+        <v>8370.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>61121</v>
+        <v>61121.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>14183</v>
+        <v>14183.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>911</v>
+        <v>911.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>8845</v>
+        <v>8845.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1543</v>
+        <v>1543.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>7747</v>
+        <v>7747.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1390</v>
+        <v>1390.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1667</v>
+        <v>1667.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4339</v>
+        <v>4339.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>9180</v>
+        <v>9180.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>32684</v>
+        <v>32684.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1335</v>
+        <v>1335.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>9594</v>
+        <v>9594.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>4327</v>
+        <v>4327.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>2169</v>
+        <v>2169.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>2115</v>
+        <v>2115.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>19085</v>
+        <v>19085.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>6083</v>
+        <v>6083.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>59590</v>
+        <v>59590.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>38066</v>
+        <v>38066.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>11920</v>
+        <v>11920.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>14951</v>
+        <v>14951.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>9387</v>
+        <v>9387.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1561</v>
+        <v>1561.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>6291</v>
+        <v>6291.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3210</v>
+        <v>3210.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>3866</v>
+        <v>3866.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2915</v>
+        <v>2915.0</v>
       </c>
       <c r="D6" t="n">
-        <v>341</v>
+        <v>341.0</v>
       </c>
       <c r="E6" t="n">
-        <v>795</v>
+        <v>795.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4945</v>
+        <v>4945.0</v>
       </c>
       <c r="G6" t="n">
-        <v>818</v>
+        <v>818.0</v>
       </c>
       <c r="H6" t="n">
-        <v>504</v>
+        <v>504.0</v>
       </c>
       <c r="I6" t="n">
-        <v>5445</v>
+        <v>5445.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2149</v>
+        <v>2149.0</v>
       </c>
       <c r="K6" t="n">
-        <v>5772</v>
+        <v>5772.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1743</v>
+        <v>1743.0</v>
       </c>
       <c r="M6" t="n">
-        <v>286</v>
+        <v>286.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1795</v>
+        <v>1795.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3627</v>
+        <v>3627.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1685</v>
+        <v>1685.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>990</v>
+        <v>990.0</v>
       </c>
       <c r="R6" t="n">
-        <v>2155</v>
+        <v>2155.0</v>
       </c>
       <c r="S6" t="n">
-        <v>998</v>
+        <v>998.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1617</v>
+        <v>1617.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1399</v>
+        <v>1399.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2365</v>
+        <v>2365.0</v>
       </c>
       <c r="W6" t="n">
-        <v>2010</v>
+        <v>2010.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1141</v>
+        <v>1141.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2465</v>
+        <v>2465.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4394</v>
+        <v>4394.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3651</v>
+        <v>3651.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2377</v>
+        <v>2377.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1082</v>
+        <v>1082.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4409</v>
+        <v>4409.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>2038</v>
+        <v>2038.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2975</v>
+        <v>2975.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5541</v>
+        <v>5541.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4384</v>
+        <v>4384.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>2728</v>
+        <v>2728.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1636</v>
+        <v>1636.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2812</v>
+        <v>2812.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>2128</v>
+        <v>2128.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>3611</v>
+        <v>3611.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>3647</v>
+        <v>3647.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>23733</v>
+        <v>23733.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>8306</v>
+        <v>8306.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>60380</v>
+        <v>60380.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>13877</v>
+        <v>13877.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>882</v>
+        <v>882.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1179</v>
+        <v>1179.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>7868</v>
+        <v>7868.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1515</v>
+        <v>1515.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>7699</v>
+        <v>7699.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1315</v>
+        <v>1315.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1590</v>
+        <v>1590.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3545</v>
+        <v>3545.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>8632</v>
+        <v>8632.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>27726</v>
+        <v>27726.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1298</v>
+        <v>1298.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>8738</v>
+        <v>8738.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>4267</v>
+        <v>4267.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>2143</v>
+        <v>2143.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>2081</v>
+        <v>2081.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>18885</v>
+        <v>18885.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>6042</v>
+        <v>6042.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>58951</v>
+        <v>58951.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>37912</v>
+        <v>37912.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>11901</v>
+        <v>11901.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>14931</v>
+        <v>14931.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>9342</v>
+        <v>9342.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>1531</v>
+        <v>1531.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>6187</v>
+        <v>6187.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3210</v>
+        <v>3210.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1344</v>
+        <v>1344.0</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="I7" t="n">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="K7" t="n">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="L7" t="n">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="M7" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="O7" t="n">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="R7" t="n">
-        <v>222</v>
+        <v>222.0</v>
       </c>
       <c r="S7" t="n">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="T7" t="n">
-        <v>633</v>
+        <v>633.0</v>
       </c>
       <c r="U7" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="V7" t="n">
-        <v>222</v>
+        <v>222.0</v>
       </c>
       <c r="W7" t="n">
-        <v>160</v>
+        <v>160.0</v>
       </c>
       <c r="X7" t="n">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>154</v>
+        <v>154.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>213</v>
+        <v>213.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>287</v>
+        <v>287.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>198</v>
+        <v>198.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>131</v>
+        <v>131.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>289</v>
+        <v>289.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>790</v>
+        <v>790.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>741</v>
+        <v>741.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>306</v>
+        <v>306.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>977</v>
+        <v>977.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>794</v>
+        <v>794.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>548</v>
+        <v>548.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>4958</v>
+        <v>4958.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>856</v>
+        <v>856.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>639</v>
+        <v>639.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>154</v>
+        <v>154.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>63871</v>
+        <v>63871.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>2636</v>
+        <v>2636.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5480</v>
+        <v>5480.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>146514</v>
+        <v>146514.0</v>
       </c>
       <c r="C9" t="n">
-        <v>49563</v>
+        <v>49563.0</v>
       </c>
       <c r="D9" t="n">
-        <v>22111</v>
+        <v>22111.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4730</v>
+        <v>4730.0</v>
       </c>
       <c r="F9" t="n">
-        <v>50210</v>
+        <v>50210.0</v>
       </c>
       <c r="G9" t="n">
-        <v>19249</v>
+        <v>19249.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2041</v>
+        <v>2041.0</v>
       </c>
       <c r="I9" t="n">
-        <v>12887</v>
+        <v>12887.0</v>
       </c>
       <c r="J9" t="n">
-        <v>-1467</v>
+        <v>-1467.0</v>
       </c>
       <c r="K9" t="n">
-        <v>17679</v>
+        <v>17679.0</v>
       </c>
       <c r="L9" t="n">
-        <v>13846</v>
+        <v>13846.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2778</v>
+        <v>2778.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2995</v>
+        <v>2995.0</v>
       </c>
       <c r="O9" t="n">
-        <v>6643</v>
+        <v>6643.0</v>
       </c>
       <c r="P9" t="n">
-        <v>3346</v>
+        <v>3346.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3712</v>
+        <v>3712.0</v>
       </c>
       <c r="R9" t="n">
-        <v>10777</v>
+        <v>10777.0</v>
       </c>
       <c r="S9" t="n">
-        <v>2485</v>
+        <v>2485.0</v>
       </c>
       <c r="T9" t="n">
-        <v>28675</v>
+        <v>28675.0</v>
       </c>
       <c r="U9" t="n">
-        <v>2231</v>
+        <v>2231.0</v>
       </c>
       <c r="V9" t="n">
-        <v>13230</v>
+        <v>13230.0</v>
       </c>
       <c r="W9" t="n">
-        <v>5183</v>
+        <v>5183.0</v>
       </c>
       <c r="X9" t="n">
-        <v>2469</v>
+        <v>2469.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>11449</v>
+        <v>11449.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>4758</v>
+        <v>4758.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>7039</v>
+        <v>7039.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>8988</v>
+        <v>8988.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>6353</v>
+        <v>6353.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>10815</v>
+        <v>10815.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>2831</v>
+        <v>2831.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>2034</v>
+        <v>2034.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>8546</v>
+        <v>8546.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1349</v>
+        <v>1349.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1947</v>
+        <v>1947.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>14643</v>
+        <v>14643.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>9915</v>
+        <v>9915.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>68025</v>
+        <v>68025.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>20299</v>
+        <v>20299.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>165926</v>
+        <v>165926.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>40840</v>
+        <v>40840.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>290340</v>
+        <v>290340.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>66875</v>
+        <v>66875.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3340</v>
+        <v>3340.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-758</v>
+        <v>-758.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>22668</v>
+        <v>22668.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>3197</v>
+        <v>3197.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>60264</v>
+        <v>60264.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1524</v>
+        <v>1524.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>7575</v>
+        <v>7575.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>43380</v>
+        <v>43380.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>34428</v>
+        <v>34428.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>214756</v>
+        <v>214756.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>491813</v>
+        <v>491813.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>71058</v>
+        <v>71058.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>22840</v>
+        <v>22840.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>21856</v>
+        <v>21856.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>18764</v>
+        <v>18764.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>44318</v>
+        <v>44318.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>3759</v>
+        <v>3759.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>70971</v>
+        <v>70971.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>11151</v>
+        <v>11151.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>5870</v>
+        <v>5870.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>5467</v>
+        <v>5467.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>63339</v>
+        <v>63339.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>7912</v>
+        <v>7912.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>30470</v>
+        <v>30470.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>77633</v>
+        <v>77633.0</v>
       </c>
       <c r="C10" t="n">
-        <v>37454</v>
+        <v>37454.0</v>
       </c>
       <c r="D10" t="n">
-        <v>11309</v>
+        <v>11309.0</v>
       </c>
       <c r="E10" t="n">
-        <v>394</v>
+        <v>394.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>408</v>
+        <v>408.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>3324</v>
+        <v>3324.0</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1437</v>
+        <v>1437.0</v>
       </c>
       <c r="O10" t="n">
-        <v>5567</v>
+        <v>5567.0</v>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>460.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1521</v>
+        <v>1521.0</v>
       </c>
       <c r="R10" t="n">
-        <v>246</v>
+        <v>246.0</v>
       </c>
       <c r="S10" t="n">
-        <v>576</v>
+        <v>576.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>540</v>
+        <v>540.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1049</v>
+        <v>1049.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-11</v>
+        <v>-11.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2775</v>
+        <v>2775.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1373</v>
+        <v>1373.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>3900</v>
+        <v>3900.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1755</v>
+        <v>1755.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>79250</v>
+        <v>79250.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>20491</v>
+        <v>20491.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>56609</v>
+        <v>56609.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>20784</v>
+        <v>20784.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>329</v>
+        <v>329.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>956</v>
+        <v>956.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>955</v>
+        <v>955.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>34486</v>
+        <v>34486.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>417</v>
+        <v>417.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>748</v>
+        <v>748.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>533</v>
+        <v>533.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>7105</v>
+        <v>7105.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>2160</v>
+        <v>2160.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>4533</v>
+        <v>4533.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>28590</v>
+        <v>28590.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>10248</v>
+        <v>10248.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>5467</v>
+        <v>5467.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>684</v>
+        <v>684.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>6437</v>
+        <v>6437.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>892</v>
+        <v>892.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>5307</v>
+        <v>5307.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>31064</v>
+        <v>31064.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>5252</v>
+        <v>5252.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>24089</v>
+        <v>24089.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>68881</v>
+        <v>68881.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12109</v>
+        <v>12109.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10802</v>
+        <v>10802.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4336</v>
+        <v>4336.0</v>
       </c>
       <c r="F11" t="n">
-        <v>50210</v>
+        <v>50210.0</v>
       </c>
       <c r="G11" t="n">
-        <v>19249</v>
+        <v>19249.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2041</v>
+        <v>2041.0</v>
       </c>
       <c r="I11" t="n">
-        <v>12479</v>
+        <v>12479.0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1467</v>
+        <v>-1467.0</v>
       </c>
       <c r="K11" t="n">
-        <v>14355</v>
+        <v>14355.0</v>
       </c>
       <c r="L11" t="n">
-        <v>13825</v>
+        <v>13825.0</v>
       </c>
       <c r="M11" t="n">
-        <v>2778</v>
+        <v>2778.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1558</v>
+        <v>1558.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1076</v>
+        <v>1076.0</v>
       </c>
       <c r="P11" t="n">
-        <v>2886</v>
+        <v>2886.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2191</v>
+        <v>2191.0</v>
       </c>
       <c r="R11" t="n">
-        <v>10531</v>
+        <v>10531.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1909</v>
+        <v>1909.0</v>
       </c>
       <c r="T11" t="n">
-        <v>28675</v>
+        <v>28675.0</v>
       </c>
       <c r="U11" t="n">
-        <v>2231</v>
+        <v>2231.0</v>
       </c>
       <c r="V11" t="n">
-        <v>13230</v>
+        <v>13230.0</v>
       </c>
       <c r="W11" t="n">
-        <v>5183</v>
+        <v>5183.0</v>
       </c>
       <c r="X11" t="n">
-        <v>1929</v>
+        <v>1929.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>11449</v>
+        <v>11449.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>4513</v>
+        <v>4513.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>5990</v>
+        <v>5990.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>8988</v>
+        <v>8988.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>6364</v>
+        <v>6364.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>8040</v>
+        <v>8040.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2831</v>
+        <v>2831.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>2034</v>
+        <v>2034.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>8546</v>
+        <v>8546.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1349</v>
+        <v>1349.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-28</v>
+        <v>-28.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1931</v>
+        <v>1931.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>13270</v>
+        <v>13270.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>6015</v>
+        <v>6015.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>68025</v>
+        <v>68025.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>18544</v>
+        <v>18544.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>86676</v>
+        <v>86676.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>20349</v>
+        <v>20349.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>233731</v>
+        <v>233731.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>46091</v>
+        <v>46091.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3011</v>
+        <v>3011.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-758</v>
+        <v>-758.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>21712</v>
+        <v>21712.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>2242</v>
+        <v>2242.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>25778</v>
+        <v>25778.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1107</v>
+        <v>1107.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>6827</v>
+        <v>6827.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>42847</v>
+        <v>42847.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>27323</v>
+        <v>27323.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>212596</v>
+        <v>212596.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>487280</v>
+        <v>487280.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>42468</v>
+        <v>42468.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>12592</v>
+        <v>12592.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>16389</v>
+        <v>16389.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>18080</v>
+        <v>18080.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>37881</v>
+        <v>37881.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>2867</v>
+        <v>2867.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>70971</v>
+        <v>70971.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>11151</v>
+        <v>11151.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>563</v>
+        <v>563.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>5467</v>
+        <v>5467.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>32275</v>
+        <v>32275.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>2660</v>
+        <v>2660.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>6381</v>
+        <v>6381.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>1255</v>
+        <v>1255.0</v>
       </c>
       <c r="C12" t="n">
-        <v>564</v>
+        <v>564.0</v>
       </c>
       <c r="D12" t="n">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="E12" t="n">
-        <v>177</v>
+        <v>177.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1210</v>
+        <v>1210.0</v>
       </c>
       <c r="G12" t="n">
-        <v>354</v>
+        <v>354.0</v>
       </c>
       <c r="H12" t="n">
-        <v>138</v>
+        <v>138.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1875</v>
+        <v>1875.0</v>
       </c>
       <c r="J12" t="n">
-        <v>604</v>
+        <v>604.0</v>
       </c>
       <c r="K12" t="n">
-        <v>2126</v>
+        <v>2126.0</v>
       </c>
       <c r="L12" t="n">
-        <v>717</v>
+        <v>717.0</v>
       </c>
       <c r="M12" t="n">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="N12" t="n">
-        <v>419</v>
+        <v>419.0</v>
       </c>
       <c r="O12" t="n">
-        <v>583</v>
+        <v>583.0</v>
       </c>
       <c r="P12" t="n">
-        <v>409</v>
+        <v>409.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>264</v>
+        <v>264.0</v>
       </c>
       <c r="R12" t="n">
-        <v>645</v>
+        <v>645.0</v>
       </c>
       <c r="S12" t="n">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1007</v>
+        <v>1007.0</v>
       </c>
       <c r="U12" t="n">
-        <v>372</v>
+        <v>372.0</v>
       </c>
       <c r="V12" t="n">
-        <v>969</v>
+        <v>969.0</v>
       </c>
       <c r="W12" t="n">
-        <v>570</v>
+        <v>570.0</v>
       </c>
       <c r="X12" t="n">
-        <v>339</v>
+        <v>339.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>514</v>
+        <v>514.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>945</v>
+        <v>945.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>855</v>
+        <v>855.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>766</v>
+        <v>766.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>405</v>
+        <v>405.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>926</v>
+        <v>926.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>768</v>
+        <v>768.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>671</v>
+        <v>671.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1215</v>
+        <v>1215.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1160</v>
+        <v>1160.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>775</v>
+        <v>775.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>474</v>
+        <v>474.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>643</v>
+        <v>643.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>387</v>
+        <v>387.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>2114</v>
+        <v>2114.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>656</v>
+        <v>656.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>4023</v>
+        <v>4023.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1271</v>
+        <v>1271.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10006</v>
+        <v>10006.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>2944</v>
+        <v>2944.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>370</v>
+        <v>370.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>574</v>
+        <v>574.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1611</v>
+        <v>1611.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>323</v>
+        <v>323.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1374</v>
+        <v>1374.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>237</v>
+        <v>237.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>1273</v>
+        <v>1273.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4701</v>
+        <v>4701.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1570</v>
+        <v>1570.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>7277</v>
+        <v>7277.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>358</v>
+        <v>358.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>2003</v>
+        <v>2003.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>712</v>
+        <v>712.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>383</v>
+        <v>383.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>454</v>
+        <v>454.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>2724</v>
+        <v>2724.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>872</v>
+        <v>872.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>2064</v>
+        <v>2064.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>2209</v>
+        <v>2209.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>1048</v>
+        <v>1048.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-10763</v>
+        <v>-10763.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-168</v>
+        <v>-168.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-42</v>
+        <v>-42.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-91</v>
+        <v>-91.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>-36</v>
+        <v>-36.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-121</v>
+        <v>-121.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-169</v>
+        <v>-169.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-157</v>
+        <v>-157.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-47</v>
+        <v>-47.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-31</v>
+        <v>-31.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-46</v>
+        <v>-46.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-118</v>
+        <v>-118.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-223</v>
+        <v>-223.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-198</v>
+        <v>-198.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-45</v>
+        <v>-45.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-31</v>
+        <v>-31.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-178</v>
+        <v>-178.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-147</v>
+        <v>-147.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-80</v>
+        <v>-80.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-41</v>
+        <v>-41.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-98</v>
+        <v>-98.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-110</v>
+        <v>-110.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-289</v>
+        <v>-289.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-326</v>
+        <v>-326.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-266</v>
+        <v>-266.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-74</v>
+        <v>-74.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-42</v>
+        <v>-42.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-807</v>
+        <v>-807.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-46</v>
+        <v>-46.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-540</v>
+        <v>-540.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-42</v>
+        <v>-42.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1375</v>
+        <v>-1375.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-2421</v>
+        <v>-2421.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-37</v>
+        <v>-37.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-72</v>
+        <v>-72.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-95</v>
+        <v>-95.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-642</v>
+        <v>-642.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-230</v>
+        <v>-230.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>-72</v>
+        <v>-72.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-36</v>
+        <v>-36.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>309301</v>
+        <v>309301.0</v>
       </c>
       <c r="C14" t="n">
-        <v>137018</v>
+        <v>137018.0</v>
       </c>
       <c r="D14" t="n">
-        <v>32411</v>
+        <v>32411.0</v>
       </c>
       <c r="E14" t="n">
-        <v>19733</v>
+        <v>19733.0</v>
       </c>
       <c r="F14" t="n">
-        <v>171984</v>
+        <v>171984.0</v>
       </c>
       <c r="G14" t="n">
-        <v>52753</v>
+        <v>52753.0</v>
       </c>
       <c r="H14" t="n">
-        <v>16103</v>
+        <v>16103.0</v>
       </c>
       <c r="I14" t="n">
-        <v>255198</v>
+        <v>255198.0</v>
       </c>
       <c r="J14" t="n">
-        <v>48066</v>
+        <v>48066.0</v>
       </c>
       <c r="K14" t="n">
-        <v>253228</v>
+        <v>253228.0</v>
       </c>
       <c r="L14" t="n">
-        <v>76444</v>
+        <v>76444.0</v>
       </c>
       <c r="M14" t="n">
-        <v>15084</v>
+        <v>15084.0</v>
       </c>
       <c r="N14" t="n">
-        <v>46430</v>
+        <v>46430.0</v>
       </c>
       <c r="O14" t="n">
-        <v>61302</v>
+        <v>61302.0</v>
       </c>
       <c r="P14" t="n">
-        <v>40232</v>
+        <v>40232.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>26588</v>
+        <v>26588.0</v>
       </c>
       <c r="R14" t="n">
-        <v>80337</v>
+        <v>80337.0</v>
       </c>
       <c r="S14" t="n">
-        <v>19473</v>
+        <v>19473.0</v>
       </c>
       <c r="T14" t="n">
-        <v>373349</v>
+        <v>373349.0</v>
       </c>
       <c r="U14" t="n">
-        <v>42841</v>
+        <v>42841.0</v>
       </c>
       <c r="V14" t="n">
-        <v>145533</v>
+        <v>145533.0</v>
       </c>
       <c r="W14" t="n">
-        <v>74484</v>
+        <v>74484.0</v>
       </c>
       <c r="X14" t="n">
-        <v>40475</v>
+        <v>40475.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>57972</v>
+        <v>57972.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>101171</v>
+        <v>101171.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>89569</v>
+        <v>89569.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>101592</v>
+        <v>101592.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>57162</v>
+        <v>57162.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>91269</v>
+        <v>91269.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>85209</v>
+        <v>85209.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>71998</v>
+        <v>71998.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>120638</v>
+        <v>120638.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>146446</v>
+        <v>146446.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>70497</v>
+        <v>70497.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51015</v>
+        <v>51015.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>70398</v>
+        <v>70398.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>62460</v>
+        <v>62460.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>260753</v>
+        <v>260753.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>62845</v>
+        <v>62845.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>632308</v>
+        <v>632308.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>146401</v>
+        <v>146401.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>954362</v>
+        <v>954362.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>332855</v>
+        <v>332855.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>20080</v>
+        <v>20080.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>37338</v>
+        <v>37338.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>115144</v>
+        <v>115144.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>23990</v>
+        <v>23990.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>223426</v>
+        <v>223426.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>20486</v>
+        <v>20486.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>43404</v>
+        <v>43404.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>161039</v>
+        <v>161039.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>125537</v>
+        <v>125537.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>574611</v>
+        <v>574611.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>545929</v>
+        <v>545929.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>187868</v>
+        <v>187868.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>70844</v>
+        <v>70844.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>94350</v>
+        <v>94350.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>45657</v>
+        <v>45657.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>208430</v>
+        <v>208430.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>39955</v>
+        <v>39955.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>719620</v>
+        <v>719620.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>309034</v>
+        <v>309034.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>110787</v>
+        <v>110787.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>179155</v>
+        <v>179155.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>222681</v>
+        <v>222681.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>34631</v>
+        <v>34631.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>145590</v>
+        <v>145590.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>61996</v>
+        <v>61996.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>5972110</v>
+        <v>5972110.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6200828</v>
+        <v>6200828.0</v>
       </c>
       <c r="D15" t="n">
-        <v>964588</v>
+        <v>964588.0</v>
       </c>
       <c r="E15" t="n">
-        <v>134859</v>
+        <v>134859.0</v>
       </c>
       <c r="F15" t="n">
-        <v>68449</v>
+        <v>68449.0</v>
       </c>
       <c r="G15" t="n">
-        <v>50343</v>
+        <v>50343.0</v>
       </c>
       <c r="H15" t="n">
-        <v>33905</v>
+        <v>33905.0</v>
       </c>
       <c r="I15" t="n">
-        <v>736988</v>
+        <v>736988.0</v>
       </c>
       <c r="J15" t="n">
-        <v>181114</v>
+        <v>181114.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1236883</v>
+        <v>1236883.0</v>
       </c>
       <c r="L15" t="n">
-        <v>192632</v>
+        <v>192632.0</v>
       </c>
       <c r="M15" t="n">
-        <v>18171</v>
+        <v>18171.0</v>
       </c>
       <c r="N15" t="n">
-        <v>619475</v>
+        <v>619475.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1695059</v>
+        <v>1695059.0</v>
       </c>
       <c r="P15" t="n">
-        <v>488656</v>
+        <v>488656.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>381692</v>
+        <v>381692.0</v>
       </c>
       <c r="R15" t="n">
-        <v>201698</v>
+        <v>201698.0</v>
       </c>
       <c r="S15" t="n">
-        <v>199031</v>
+        <v>199031.0</v>
       </c>
       <c r="T15" t="n">
-        <v>23131</v>
+        <v>23131.0</v>
       </c>
       <c r="U15" t="n">
-        <v>107197</v>
+        <v>107197.0</v>
       </c>
       <c r="V15" t="n">
-        <v>101155</v>
+        <v>101155.0</v>
       </c>
       <c r="W15" t="n">
-        <v>95169</v>
+        <v>95169.0</v>
       </c>
       <c r="X15" t="n">
-        <v>140031</v>
+        <v>140031.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>102511</v>
+        <v>102511.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>445991</v>
+        <v>445991.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>654035</v>
+        <v>654035.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>123856</v>
+        <v>123856.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>100824</v>
+        <v>100824.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>724817</v>
+        <v>724817.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>144018</v>
+        <v>144018.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>222892</v>
+        <v>222892.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>410002</v>
+        <v>410002.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>170072</v>
+        <v>170072.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>287368</v>
+        <v>287368.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>114099</v>
+        <v>114099.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>785915</v>
+        <v>785915.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>509033</v>
+        <v>509033.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>153226</v>
+        <v>153226.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>524195</v>
+        <v>524195.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>8639884</v>
+        <v>8639884.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2905544</v>
+        <v>2905544.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15967829</v>
+        <v>1.5967829E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>3779892</v>
+        <v>3779892.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>58938</v>
+        <v>58938.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>66660</v>
+        <v>66660.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>815610</v>
+        <v>815610.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>445903</v>
+        <v>445903.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>4940057</v>
+        <v>4940057.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>166749</v>
+        <v>166749.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>174489</v>
+        <v>174489.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>233286</v>
+        <v>233286.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>775233</v>
+        <v>775233.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1199865</v>
+        <v>1199865.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>417053</v>
+        <v>417053.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1710900</v>
+        <v>1710900.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>584968</v>
+        <v>584968.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>502393</v>
+        <v>502393.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>328703</v>
+        <v>328703.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>4133277</v>
+        <v>4133277.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>864070</v>
+        <v>864070.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5093330</v>
+        <v>5093330.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>4170739</v>
+        <v>4170739.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2484459</v>
+        <v>2484459.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1903462</v>
+        <v>1903462.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>2908293</v>
+        <v>2908293.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>986109</v>
+        <v>986109.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>4000141</v>
+        <v>4000141.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6381222</v>
+        <v>6381222.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>